--- a/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.79788895030412</v>
+        <v>21.79788895030413</v>
       </c>
       <c r="C2">
-        <v>14.05212025774236</v>
+        <v>14.05212025774249</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.798446278084207</v>
+        <v>4.798446278084256</v>
       </c>
       <c r="F2">
         <v>33.798609348062</v>
       </c>
       <c r="G2">
-        <v>29.62490574200115</v>
+        <v>29.62490574200113</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.75477722922587</v>
+        <v>10.75477722922585</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.577291372306121</v>
+        <v>7.577291372306122</v>
       </c>
       <c r="L2">
         <v>14.73368198259071</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.23968463391023</v>
+        <v>20.23968463391024</v>
       </c>
       <c r="C3">
         <v>13.11856246157458</v>
@@ -459,28 +459,28 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.700249731796543</v>
+        <v>4.700249731796589</v>
       </c>
       <c r="F3">
         <v>31.70792519834352</v>
       </c>
       <c r="G3">
-        <v>28.2404086238802</v>
+        <v>28.24040862388014</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.82687019935361</v>
+        <v>10.82687019935353</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.114558405039191</v>
+        <v>7.114558405039157</v>
       </c>
       <c r="L3">
-        <v>13.77567310173885</v>
+        <v>13.77567310173882</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.23475778396402</v>
+        <v>19.23475778396404</v>
       </c>
       <c r="C4">
         <v>12.51841586030124</v>
@@ -497,28 +497,28 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.641306297732557</v>
+        <v>4.641306297732644</v>
       </c>
       <c r="F4">
-        <v>30.38728102518773</v>
+        <v>30.38728102518775</v>
       </c>
       <c r="G4">
-        <v>27.39150378661456</v>
+        <v>27.39150378661454</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.87718389780472</v>
+        <v>10.87718389780466</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.816505996546606</v>
+        <v>6.816505996546521</v>
       </c>
       <c r="L4">
-        <v>13.15875811953922</v>
+        <v>13.1587581195392</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.81290817336693</v>
+        <v>18.81290817336695</v>
       </c>
       <c r="C5">
-        <v>12.26696914601337</v>
+        <v>12.26696914601346</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.617644610776154</v>
+        <v>4.617644610776202</v>
       </c>
       <c r="F5">
-        <v>29.84013327686086</v>
+        <v>29.84013327686088</v>
       </c>
       <c r="G5">
-        <v>27.04610014556572</v>
+        <v>27.04610014556575</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.89909560803244</v>
+        <v>10.89909560803248</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.691532795185348</v>
+        <v>6.691532795185368</v>
       </c>
       <c r="L5">
-        <v>12.90006644248746</v>
+        <v>12.90006644248748</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>18.74210934709705</v>
       </c>
       <c r="C6">
-        <v>12.22479814782994</v>
+        <v>12.22479814783004</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.613737808530407</v>
+        <v>4.613737808530466</v>
       </c>
       <c r="F6">
-        <v>29.74874961233559</v>
+        <v>29.74874961233552</v>
       </c>
       <c r="G6">
-        <v>26.9887863711244</v>
+        <v>26.98878637112427</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.90281604140056</v>
+        <v>10.90281604140049</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.670568705939213</v>
+        <v>6.670568705939226</v>
       </c>
       <c r="L6">
-        <v>12.85666840446532</v>
+        <v>12.85666840446536</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.22911878920936</v>
+        <v>19.22911878920934</v>
       </c>
       <c r="C7">
-        <v>12.5150527569145</v>
+        <v>12.51505275691457</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.640985711925031</v>
+        <v>4.640985711925142</v>
       </c>
       <c r="F7">
-        <v>30.37993782140778</v>
+        <v>30.37993782140779</v>
       </c>
       <c r="G7">
-        <v>27.38684304062753</v>
+        <v>27.38684304062751</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.87747384369051</v>
+        <v>10.87747384369052</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.81483480120498</v>
+        <v>6.814834801204992</v>
       </c>
       <c r="L7">
         <v>13.15529893667612</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.27048459344594</v>
+        <v>21.27048459344604</v>
       </c>
       <c r="C8">
-        <v>13.73574945183394</v>
+        <v>13.73574945183392</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.764318980993871</v>
+        <v>4.764318980993978</v>
       </c>
       <c r="F8">
         <v>33.08556291940589</v>
       </c>
       <c r="G8">
-        <v>29.14740524653832</v>
+        <v>29.14740524653822</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.77830794603811</v>
+        <v>10.77830794603805</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.42062297015254</v>
+        <v>7.420622970152478</v>
       </c>
       <c r="L8">
-        <v>14.40926304877801</v>
+        <v>14.40926304877805</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.90198419782467</v>
+        <v>24.9019841978247</v>
       </c>
       <c r="C9">
-        <v>15.92171130990292</v>
+        <v>15.92171130990302</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.01613389278437</v>
+        <v>5.016133892784434</v>
       </c>
       <c r="F9">
-        <v>38.09062294676291</v>
+        <v>38.09062294676288</v>
       </c>
       <c r="G9">
-        <v>32.6028949664896</v>
+        <v>32.60289496648959</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.63761859652742</v>
+        <v>10.63761859652747</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.499049538415868</v>
+        <v>8.499049538415841</v>
       </c>
       <c r="L9">
         <v>16.6451057773508</v>
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.35996370609557</v>
+        <v>27.3599637060956</v>
       </c>
       <c r="C10">
-        <v>17.41089774790589</v>
+        <v>17.410897747906</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.206391242478963</v>
+        <v>5.206391242478962</v>
       </c>
       <c r="F10">
-        <v>41.76220783770447</v>
+        <v>41.76220783770449</v>
       </c>
       <c r="G10">
-        <v>35.14157535518711</v>
+        <v>35.14157535518714</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.57636590526259</v>
+        <v>10.57636590526253</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.226729017546235</v>
+        <v>9.226729017546242</v>
       </c>
       <c r="L10">
-        <v>18.15936156533952</v>
+        <v>18.15936156533956</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.43672310698778</v>
+        <v>28.43672310698777</v>
       </c>
       <c r="C11">
-        <v>18.0656765764562</v>
+        <v>18.06567657645625</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.293979372959431</v>
+        <v>5.293979372959393</v>
       </c>
       <c r="F11">
-        <v>43.40153873750396</v>
+        <v>43.40153873750395</v>
       </c>
       <c r="G11">
         <v>36.29812242866362</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.56015581702342</v>
+        <v>10.56015581702334</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.54438607719023</v>
+        <v>9.544386077190262</v>
       </c>
       <c r="L11">
-        <v>18.82244381061177</v>
+        <v>18.82244381061178</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.83891104716126</v>
+        <v>28.83891104716133</v>
       </c>
       <c r="C12">
-        <v>18.31063142293546</v>
+        <v>18.31063142293544</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.327293394684384</v>
+        <v>5.327293394684348</v>
       </c>
       <c r="F12">
-        <v>44.01556070101878</v>
+        <v>44.0155607010189</v>
       </c>
       <c r="G12">
-        <v>36.73660402868189</v>
+        <v>36.73660402868212</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.55594435053823</v>
+        <v>10.55594435053821</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.662818650448896</v>
+        <v>9.662818650448859</v>
       </c>
       <c r="L12">
-        <v>19.07003762332694</v>
+        <v>19.07003762332696</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.75253300506215</v>
+        <v>28.75253300506222</v>
       </c>
       <c r="C13">
-        <v>18.25800461629662</v>
+        <v>18.25800461629671</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.320112103900308</v>
+        <v>5.320112103900389</v>
       </c>
       <c r="F13">
-        <v>43.88361260972246</v>
+        <v>43.88361260972248</v>
       </c>
       <c r="G13">
-        <v>36.64214011706559</v>
+        <v>36.64214011706564</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.55676124115332</v>
+        <v>10.5567612411533</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.637393525880881</v>
+        <v>9.637393525880812</v>
       </c>
       <c r="L13">
         <v>19.01686600604474</v>
@@ -871,34 +871,34 @@
         <v>28.46992028582767</v>
       </c>
       <c r="C14">
-        <v>18.08588754392341</v>
+        <v>18.08588754392356</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.296717202515929</v>
+        <v>5.29671720251603</v>
       </c>
       <c r="F14">
-        <v>43.45218726831764</v>
+        <v>43.45218726831759</v>
       </c>
       <c r="G14">
-        <v>36.33418404885617</v>
+        <v>36.33418404885603</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.55976913948057</v>
+        <v>10.55976913948056</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.554166407015964</v>
+        <v>9.554166407015947</v>
       </c>
       <c r="L14">
-        <v>18.84288239417241</v>
+        <v>18.8428823941724</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.29610067637493</v>
+        <v>28.29610067637496</v>
       </c>
       <c r="C15">
-        <v>17.980079243542</v>
+        <v>17.9800792435421</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.282406208987832</v>
+        <v>5.282406208987861</v>
       </c>
       <c r="F15">
-        <v>43.18706142852274</v>
+        <v>43.18706142852279</v>
       </c>
       <c r="G15">
-        <v>36.14563055767187</v>
+        <v>36.14563055767186</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.56187063014967</v>
+        <v>10.56187063014963</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.502947639841706</v>
+        <v>9.502947639841777</v>
       </c>
       <c r="L15">
-        <v>18.73586302675861</v>
+        <v>18.7358630267587</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.28879464152363</v>
+        <v>27.28879464152372</v>
       </c>
       <c r="C16">
-        <v>17.367671984338</v>
+        <v>17.3676719843379</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.200687665211942</v>
+        <v>5.200687665211922</v>
       </c>
       <c r="F16">
-        <v>41.65410223310796</v>
+        <v>41.65410223310811</v>
       </c>
       <c r="G16">
-        <v>35.06604729771414</v>
+        <v>35.06604729771431</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.57768037610365</v>
+        <v>10.57768037610367</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.205705698073155</v>
+        <v>9.205705698073123</v>
       </c>
       <c r="L16">
         <v>18.11552590732427</v>
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.66050924403604</v>
+        <v>26.66050924403606</v>
       </c>
       <c r="C17">
-        <v>16.98635077571234</v>
+        <v>16.98635077571246</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.150818148360391</v>
+        <v>5.150818148360465</v>
       </c>
       <c r="F17">
-        <v>40.70115035706294</v>
+        <v>40.70115035706293</v>
       </c>
       <c r="G17">
-        <v>34.40435015570023</v>
+        <v>34.40435015570014</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.59053085597475</v>
+        <v>10.59053085597474</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.019976443524831</v>
+        <v>9.019976443524845</v>
       </c>
       <c r="L17">
-        <v>17.72850662542193</v>
+        <v>17.72850662542197</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.29521412394</v>
+        <v>26.29521412393997</v>
       </c>
       <c r="C18">
-        <v>16.76487411840538</v>
+        <v>16.7648741184053</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.122232200608366</v>
+        <v>5.122232200608334</v>
       </c>
       <c r="F18">
-        <v>40.1482983631592</v>
+        <v>40.14829836315925</v>
       </c>
       <c r="G18">
-        <v>34.02389435446973</v>
+        <v>34.02389435446978</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.59900190015476</v>
+        <v>10.59900190015477</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.911887104304524</v>
+        <v>8.911887104304549</v>
       </c>
       <c r="L18">
         <v>17.5034648282653</v>
@@ -1061,7 +1061,7 @@
         <v>26.17084668148967</v>
       </c>
       <c r="C19">
-        <v>16.68950917123852</v>
+        <v>16.68950917123833</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1070,22 +1070,22 @@
         <v>5.112570452839371</v>
       </c>
       <c r="F19">
-        <v>39.96028656017812</v>
+        <v>39.9602865601781</v>
       </c>
       <c r="G19">
-        <v>33.89509523821359</v>
+        <v>33.89509523821357</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.60204846917734</v>
+        <v>10.60204846917737</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.875071219316418</v>
+        <v>8.875071219316375</v>
       </c>
       <c r="L19">
         <v>17.42684501209482</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.72779451493098</v>
+        <v>26.72779451493095</v>
       </c>
       <c r="C20">
-        <v>17.02716389245159</v>
+        <v>17.02716389245147</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.156116774875938</v>
+        <v>5.15611677487593</v>
       </c>
       <c r="F20">
-        <v>40.803081373959</v>
+        <v>40.80308137395889</v>
       </c>
       <c r="G20">
-        <v>34.47477335947569</v>
+        <v>34.47477335947554</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.0398778961481</v>
+        <v>9.039877896148091</v>
       </c>
       <c r="L20">
-        <v>17.76995649195818</v>
+        <v>17.76995649195813</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.5530779176898</v>
+        <v>28.55307791768978</v>
       </c>
       <c r="C21">
-        <v>18.13652150165743</v>
+        <v>18.13652150165763</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.303584877387834</v>
+        <v>5.303584877387892</v>
       </c>
       <c r="F21">
-        <v>43.57908677095929</v>
+        <v>43.57908677095923</v>
       </c>
       <c r="G21">
-        <v>36.42462117214684</v>
+        <v>36.42462117214673</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.55883115296039</v>
+        <v>10.5588311529603</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.578662062088117</v>
+        <v>9.578662062088096</v>
       </c>
       <c r="L21">
         <v>18.89407884199025</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.71383587877054</v>
+        <v>29.71383587877059</v>
       </c>
       <c r="C22">
-        <v>18.84424303590379</v>
+        <v>18.84424303590374</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.400819542436295</v>
+        <v>5.400819542436253</v>
       </c>
       <c r="F22">
-        <v>45.35425685474601</v>
+        <v>45.35425685474615</v>
       </c>
       <c r="G22">
-        <v>37.70222820309721</v>
+        <v>37.70222820309738</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.55045970677427</v>
+        <v>10.55045970677419</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.920001359981159</v>
+        <v>9.920001359981164</v>
       </c>
       <c r="L22">
-        <v>19.60846857135134</v>
+        <v>19.6084685713514</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.09711659270254</v>
+        <v>29.09711659270264</v>
       </c>
       <c r="C23">
-        <v>18.46800435546438</v>
+        <v>18.46800435546433</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.348844715759643</v>
+        <v>5.348844715759729</v>
       </c>
       <c r="F23">
-        <v>44.41022347979939</v>
+        <v>44.41022347979941</v>
       </c>
       <c r="G23">
-        <v>37.01991977986875</v>
+        <v>37.01991977986874</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.55379302124375</v>
+        <v>10.55379302124362</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.738784794593583</v>
+        <v>9.738784794593558</v>
       </c>
       <c r="L23">
         <v>19.22896631292029</v>
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.69738759834296</v>
+        <v>26.69738759834308</v>
       </c>
       <c r="C24">
-        <v>17.0087193099209</v>
+        <v>17.00871930992089</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.153721001656979</v>
+        <v>5.153721001657033</v>
       </c>
       <c r="F24">
-        <v>40.75701392699783</v>
+        <v>40.75701392699788</v>
       </c>
       <c r="G24">
-        <v>34.4429351646647</v>
+        <v>34.44293516466468</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.58971583815581</v>
+        <v>10.58971583815579</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.030884538020659</v>
+        <v>9.030884538020628</v>
       </c>
       <c r="L24">
-        <v>17.75122493144404</v>
+        <v>17.75122493144409</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.95775236418147</v>
+        <v>23.95775236418142</v>
       </c>
       <c r="C25">
-        <v>15.3516744145812</v>
+        <v>15.35167441458098</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.947040459325113</v>
+        <v>4.947040459325033</v>
       </c>
       <c r="F25">
-        <v>36.76936120840154</v>
+        <v>36.7693612084016</v>
       </c>
       <c r="G25">
-        <v>31.66831083013466</v>
+        <v>31.6683108301348</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.6690396072981</v>
+        <v>10.66903960729814</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.218846908058222</v>
+        <v>8.218846908058204</v>
       </c>
       <c r="L25">
-        <v>16.06343133092963</v>
+        <v>16.06343133092962</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.79788895030413</v>
+        <v>21.79788895030412</v>
       </c>
       <c r="C2">
-        <v>14.05212025774249</v>
+        <v>14.05212025774236</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.798446278084256</v>
+        <v>4.798446278084207</v>
       </c>
       <c r="F2">
         <v>33.798609348062</v>
       </c>
       <c r="G2">
-        <v>29.62490574200113</v>
+        <v>29.62490574200115</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.75477722922585</v>
+        <v>10.75477722922587</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.577291372306122</v>
+        <v>7.577291372306121</v>
       </c>
       <c r="L2">
         <v>14.73368198259071</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.23968463391024</v>
+        <v>20.23968463391023</v>
       </c>
       <c r="C3">
         <v>13.11856246157458</v>
@@ -459,28 +459,28 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.700249731796589</v>
+        <v>4.700249731796543</v>
       </c>
       <c r="F3">
         <v>31.70792519834352</v>
       </c>
       <c r="G3">
-        <v>28.24040862388014</v>
+        <v>28.2404086238802</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.82687019935353</v>
+        <v>10.82687019935361</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.114558405039157</v>
+        <v>7.114558405039191</v>
       </c>
       <c r="L3">
-        <v>13.77567310173882</v>
+        <v>13.77567310173885</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.23475778396404</v>
+        <v>19.23475778396402</v>
       </c>
       <c r="C4">
         <v>12.51841586030124</v>
@@ -497,28 +497,28 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.641306297732644</v>
+        <v>4.641306297732557</v>
       </c>
       <c r="F4">
-        <v>30.38728102518775</v>
+        <v>30.38728102518773</v>
       </c>
       <c r="G4">
-        <v>27.39150378661454</v>
+        <v>27.39150378661456</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.87718389780466</v>
+        <v>10.87718389780472</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.816505996546521</v>
+        <v>6.816505996546606</v>
       </c>
       <c r="L4">
-        <v>13.1587581195392</v>
+        <v>13.15875811953922</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.81290817336695</v>
+        <v>18.81290817336693</v>
       </c>
       <c r="C5">
-        <v>12.26696914601346</v>
+        <v>12.26696914601337</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.617644610776202</v>
+        <v>4.617644610776154</v>
       </c>
       <c r="F5">
-        <v>29.84013327686088</v>
+        <v>29.84013327686086</v>
       </c>
       <c r="G5">
-        <v>27.04610014556575</v>
+        <v>27.04610014556572</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.89909560803248</v>
+        <v>10.89909560803244</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.691532795185368</v>
+        <v>6.691532795185348</v>
       </c>
       <c r="L5">
-        <v>12.90006644248748</v>
+        <v>12.90006644248746</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>18.74210934709705</v>
       </c>
       <c r="C6">
-        <v>12.22479814783004</v>
+        <v>12.22479814782994</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.613737808530466</v>
+        <v>4.613737808530407</v>
       </c>
       <c r="F6">
-        <v>29.74874961233552</v>
+        <v>29.74874961233559</v>
       </c>
       <c r="G6">
-        <v>26.98878637112427</v>
+        <v>26.9887863711244</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.90281604140049</v>
+        <v>10.90281604140056</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.670568705939226</v>
+        <v>6.670568705939213</v>
       </c>
       <c r="L6">
-        <v>12.85666840446536</v>
+        <v>12.85666840446532</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.22911878920934</v>
+        <v>19.22911878920936</v>
       </c>
       <c r="C7">
-        <v>12.51505275691457</v>
+        <v>12.5150527569145</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.640985711925142</v>
+        <v>4.640985711925031</v>
       </c>
       <c r="F7">
-        <v>30.37993782140779</v>
+        <v>30.37993782140778</v>
       </c>
       <c r="G7">
-        <v>27.38684304062751</v>
+        <v>27.38684304062753</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.87747384369052</v>
+        <v>10.87747384369051</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.814834801204992</v>
+        <v>6.81483480120498</v>
       </c>
       <c r="L7">
         <v>13.15529893667612</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.27048459344604</v>
+        <v>21.27048459344594</v>
       </c>
       <c r="C8">
-        <v>13.73574945183392</v>
+        <v>13.73574945183394</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.764318980993978</v>
+        <v>4.764318980993871</v>
       </c>
       <c r="F8">
         <v>33.08556291940589</v>
       </c>
       <c r="G8">
-        <v>29.14740524653822</v>
+        <v>29.14740524653832</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.77830794603805</v>
+        <v>10.77830794603811</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.420622970152478</v>
+        <v>7.42062297015254</v>
       </c>
       <c r="L8">
-        <v>14.40926304877805</v>
+        <v>14.40926304877801</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.9019841978247</v>
+        <v>24.90198419782467</v>
       </c>
       <c r="C9">
-        <v>15.92171130990302</v>
+        <v>15.92171130990292</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.016133892784434</v>
+        <v>5.01613389278437</v>
       </c>
       <c r="F9">
-        <v>38.09062294676288</v>
+        <v>38.09062294676291</v>
       </c>
       <c r="G9">
-        <v>32.60289496648959</v>
+        <v>32.6028949664896</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.63761859652747</v>
+        <v>10.63761859652742</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.499049538415841</v>
+        <v>8.499049538415868</v>
       </c>
       <c r="L9">
         <v>16.6451057773508</v>
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.3599637060956</v>
+        <v>27.35996370609557</v>
       </c>
       <c r="C10">
-        <v>17.410897747906</v>
+        <v>17.41089774790589</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.206391242478962</v>
+        <v>5.206391242478963</v>
       </c>
       <c r="F10">
-        <v>41.76220783770449</v>
+        <v>41.76220783770447</v>
       </c>
       <c r="G10">
-        <v>35.14157535518714</v>
+        <v>35.14157535518711</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.57636590526253</v>
+        <v>10.57636590526259</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.226729017546242</v>
+        <v>9.226729017546235</v>
       </c>
       <c r="L10">
-        <v>18.15936156533956</v>
+        <v>18.15936156533952</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.43672310698777</v>
+        <v>28.43672310698778</v>
       </c>
       <c r="C11">
-        <v>18.06567657645625</v>
+        <v>18.0656765764562</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.293979372959393</v>
+        <v>5.293979372959431</v>
       </c>
       <c r="F11">
-        <v>43.40153873750395</v>
+        <v>43.40153873750396</v>
       </c>
       <c r="G11">
         <v>36.29812242866362</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.56015581702334</v>
+        <v>10.56015581702342</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.544386077190262</v>
+        <v>9.54438607719023</v>
       </c>
       <c r="L11">
-        <v>18.82244381061178</v>
+        <v>18.82244381061177</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.83891104716133</v>
+        <v>28.83891104716126</v>
       </c>
       <c r="C12">
-        <v>18.31063142293544</v>
+        <v>18.31063142293546</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.327293394684348</v>
+        <v>5.327293394684384</v>
       </c>
       <c r="F12">
-        <v>44.0155607010189</v>
+        <v>44.01556070101878</v>
       </c>
       <c r="G12">
-        <v>36.73660402868212</v>
+        <v>36.73660402868189</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.55594435053821</v>
+        <v>10.55594435053823</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.662818650448859</v>
+        <v>9.662818650448896</v>
       </c>
       <c r="L12">
-        <v>19.07003762332696</v>
+        <v>19.07003762332694</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.75253300506222</v>
+        <v>28.75253300506215</v>
       </c>
       <c r="C13">
-        <v>18.25800461629671</v>
+        <v>18.25800461629662</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.320112103900389</v>
+        <v>5.320112103900308</v>
       </c>
       <c r="F13">
-        <v>43.88361260972248</v>
+        <v>43.88361260972246</v>
       </c>
       <c r="G13">
-        <v>36.64214011706564</v>
+        <v>36.64214011706559</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.5567612411533</v>
+        <v>10.55676124115332</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.637393525880812</v>
+        <v>9.637393525880881</v>
       </c>
       <c r="L13">
         <v>19.01686600604474</v>
@@ -871,34 +871,34 @@
         <v>28.46992028582767</v>
       </c>
       <c r="C14">
-        <v>18.08588754392356</v>
+        <v>18.08588754392341</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.29671720251603</v>
+        <v>5.296717202515929</v>
       </c>
       <c r="F14">
-        <v>43.45218726831759</v>
+        <v>43.45218726831764</v>
       </c>
       <c r="G14">
-        <v>36.33418404885603</v>
+        <v>36.33418404885617</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.55976913948056</v>
+        <v>10.55976913948057</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.554166407015947</v>
+        <v>9.554166407015964</v>
       </c>
       <c r="L14">
-        <v>18.8428823941724</v>
+        <v>18.84288239417241</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.29610067637496</v>
+        <v>28.29610067637493</v>
       </c>
       <c r="C15">
-        <v>17.9800792435421</v>
+        <v>17.980079243542</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.282406208987861</v>
+        <v>5.282406208987832</v>
       </c>
       <c r="F15">
-        <v>43.18706142852279</v>
+        <v>43.18706142852274</v>
       </c>
       <c r="G15">
-        <v>36.14563055767186</v>
+        <v>36.14563055767187</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.56187063014963</v>
+        <v>10.56187063014967</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.502947639841777</v>
+        <v>9.502947639841706</v>
       </c>
       <c r="L15">
-        <v>18.7358630267587</v>
+        <v>18.73586302675861</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.28879464152372</v>
+        <v>27.28879464152363</v>
       </c>
       <c r="C16">
-        <v>17.3676719843379</v>
+        <v>17.367671984338</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.200687665211922</v>
+        <v>5.200687665211942</v>
       </c>
       <c r="F16">
-        <v>41.65410223310811</v>
+        <v>41.65410223310796</v>
       </c>
       <c r="G16">
-        <v>35.06604729771431</v>
+        <v>35.06604729771414</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.57768037610367</v>
+        <v>10.57768037610365</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.205705698073123</v>
+        <v>9.205705698073155</v>
       </c>
       <c r="L16">
         <v>18.11552590732427</v>
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.66050924403606</v>
+        <v>26.66050924403604</v>
       </c>
       <c r="C17">
-        <v>16.98635077571246</v>
+        <v>16.98635077571234</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.150818148360465</v>
+        <v>5.150818148360391</v>
       </c>
       <c r="F17">
-        <v>40.70115035706293</v>
+        <v>40.70115035706294</v>
       </c>
       <c r="G17">
-        <v>34.40435015570014</v>
+        <v>34.40435015570023</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.59053085597474</v>
+        <v>10.59053085597475</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.019976443524845</v>
+        <v>9.019976443524831</v>
       </c>
       <c r="L17">
-        <v>17.72850662542197</v>
+        <v>17.72850662542193</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.29521412393997</v>
+        <v>26.29521412394</v>
       </c>
       <c r="C18">
-        <v>16.7648741184053</v>
+        <v>16.76487411840538</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.122232200608334</v>
+        <v>5.122232200608366</v>
       </c>
       <c r="F18">
-        <v>40.14829836315925</v>
+        <v>40.1482983631592</v>
       </c>
       <c r="G18">
-        <v>34.02389435446978</v>
+        <v>34.02389435446973</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.59900190015477</v>
+        <v>10.59900190015476</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.911887104304549</v>
+        <v>8.911887104304524</v>
       </c>
       <c r="L18">
         <v>17.5034648282653</v>
@@ -1061,7 +1061,7 @@
         <v>26.17084668148967</v>
       </c>
       <c r="C19">
-        <v>16.68950917123833</v>
+        <v>16.68950917123852</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1070,22 +1070,22 @@
         <v>5.112570452839371</v>
       </c>
       <c r="F19">
-        <v>39.9602865601781</v>
+        <v>39.96028656017812</v>
       </c>
       <c r="G19">
-        <v>33.89509523821357</v>
+        <v>33.89509523821359</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.60204846917737</v>
+        <v>10.60204846917734</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.875071219316375</v>
+        <v>8.875071219316418</v>
       </c>
       <c r="L19">
         <v>17.42684501209482</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.72779451493095</v>
+        <v>26.72779451493098</v>
       </c>
       <c r="C20">
-        <v>17.02716389245147</v>
+        <v>17.02716389245159</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.15611677487593</v>
+        <v>5.156116774875938</v>
       </c>
       <c r="F20">
-        <v>40.80308137395889</v>
+        <v>40.803081373959</v>
       </c>
       <c r="G20">
-        <v>34.47477335947554</v>
+        <v>34.47477335947569</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.039877896148091</v>
+        <v>9.0398778961481</v>
       </c>
       <c r="L20">
-        <v>17.76995649195813</v>
+        <v>17.76995649195818</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.55307791768978</v>
+        <v>28.5530779176898</v>
       </c>
       <c r="C21">
-        <v>18.13652150165763</v>
+        <v>18.13652150165743</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.303584877387892</v>
+        <v>5.303584877387834</v>
       </c>
       <c r="F21">
-        <v>43.57908677095923</v>
+        <v>43.57908677095929</v>
       </c>
       <c r="G21">
-        <v>36.42462117214673</v>
+        <v>36.42462117214684</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.5588311529603</v>
+        <v>10.55883115296039</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.578662062088096</v>
+        <v>9.578662062088117</v>
       </c>
       <c r="L21">
         <v>18.89407884199025</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.71383587877059</v>
+        <v>29.71383587877054</v>
       </c>
       <c r="C22">
-        <v>18.84424303590374</v>
+        <v>18.84424303590379</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.400819542436253</v>
+        <v>5.400819542436295</v>
       </c>
       <c r="F22">
-        <v>45.35425685474615</v>
+        <v>45.35425685474601</v>
       </c>
       <c r="G22">
-        <v>37.70222820309738</v>
+        <v>37.70222820309721</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.55045970677419</v>
+        <v>10.55045970677427</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.920001359981164</v>
+        <v>9.920001359981159</v>
       </c>
       <c r="L22">
-        <v>19.6084685713514</v>
+        <v>19.60846857135134</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.09711659270264</v>
+        <v>29.09711659270254</v>
       </c>
       <c r="C23">
-        <v>18.46800435546433</v>
+        <v>18.46800435546438</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.348844715759729</v>
+        <v>5.348844715759643</v>
       </c>
       <c r="F23">
-        <v>44.41022347979941</v>
+        <v>44.41022347979939</v>
       </c>
       <c r="G23">
-        <v>37.01991977986874</v>
+        <v>37.01991977986875</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.55379302124362</v>
+        <v>10.55379302124375</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.738784794593558</v>
+        <v>9.738784794593583</v>
       </c>
       <c r="L23">
         <v>19.22896631292029</v>
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.69738759834308</v>
+        <v>26.69738759834296</v>
       </c>
       <c r="C24">
-        <v>17.00871930992089</v>
+        <v>17.0087193099209</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.153721001657033</v>
+        <v>5.153721001656979</v>
       </c>
       <c r="F24">
-        <v>40.75701392699788</v>
+        <v>40.75701392699783</v>
       </c>
       <c r="G24">
-        <v>34.44293516466468</v>
+        <v>34.4429351646647</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.58971583815579</v>
+        <v>10.58971583815581</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.030884538020628</v>
+        <v>9.030884538020659</v>
       </c>
       <c r="L24">
-        <v>17.75122493144409</v>
+        <v>17.75122493144404</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.95775236418142</v>
+        <v>23.95775236418147</v>
       </c>
       <c r="C25">
-        <v>15.35167441458098</v>
+        <v>15.3516744145812</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.947040459325033</v>
+        <v>4.947040459325113</v>
       </c>
       <c r="F25">
-        <v>36.7693612084016</v>
+        <v>36.76936120840154</v>
       </c>
       <c r="G25">
-        <v>31.6683108301348</v>
+        <v>31.66831083013466</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.66903960729814</v>
+        <v>10.6690396072981</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.218846908058204</v>
+        <v>8.218846908058222</v>
       </c>
       <c r="L25">
-        <v>16.06343133092962</v>
+        <v>16.06343133092963</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.79788895030412</v>
+        <v>21.79617986920118</v>
       </c>
       <c r="C2">
-        <v>14.05212025774236</v>
+        <v>14.04870213876239</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.798446278084207</v>
+        <v>4.805974424409069</v>
       </c>
       <c r="F2">
-        <v>33.798609348062</v>
+        <v>33.77487465248496</v>
       </c>
       <c r="G2">
-        <v>29.62490574200115</v>
+        <v>28.50657742398673</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>29.64770186928695</v>
       </c>
       <c r="I2">
-        <v>10.75477722922587</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.74158332388584</v>
       </c>
       <c r="K2">
-        <v>7.577291372306121</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>14.73368198259071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>7.583306063009468</v>
+      </c>
+      <c r="M2">
+        <v>14.73671122478892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.23968463391023</v>
+        <v>20.23832861595184</v>
       </c>
       <c r="C3">
-        <v>13.11856246157458</v>
+        <v>13.11569626263288</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.700249731796543</v>
+        <v>4.707328356962858</v>
       </c>
       <c r="F3">
-        <v>31.70792519834352</v>
+        <v>31.68575291006424</v>
       </c>
       <c r="G3">
-        <v>28.2404086238802</v>
+        <v>26.88984798640447</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>28.26299272915285</v>
       </c>
       <c r="I3">
-        <v>10.82687019935361</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.81491372783882</v>
       </c>
       <c r="K3">
-        <v>7.114558405039191</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>13.77567310173885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>7.120097520536999</v>
+      </c>
+      <c r="M3">
+        <v>13.7786195820248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.23475778396402</v>
+        <v>19.2336103987758</v>
       </c>
       <c r="C4">
-        <v>12.51841586030124</v>
+        <v>12.51589783642563</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.641306297732557</v>
+        <v>4.648105050601181</v>
       </c>
       <c r="F4">
-        <v>30.38728102518773</v>
+        <v>30.36611147203018</v>
       </c>
       <c r="G4">
-        <v>27.39150378661456</v>
+        <v>25.88391333465059</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>27.4140550716119</v>
       </c>
       <c r="I4">
-        <v>10.87718389780472</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.86596835040517</v>
       </c>
       <c r="K4">
-        <v>6.816505996546606</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.15875811953922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>6.82173269548243</v>
+      </c>
+      <c r="M4">
+        <v>13.16164333989821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.81290817336693</v>
+        <v>18.81184407810931</v>
       </c>
       <c r="C5">
-        <v>12.26696914601337</v>
+        <v>12.26459585034078</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.617644610776154</v>
+        <v>4.624328566668685</v>
       </c>
       <c r="F5">
-        <v>29.84013327686086</v>
+        <v>29.81938381723745</v>
       </c>
       <c r="G5">
-        <v>27.04610014556572</v>
+        <v>25.4709193972976</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>27.06866304346849</v>
       </c>
       <c r="I5">
-        <v>10.89909560803244</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.88817785869275</v>
       </c>
       <c r="K5">
-        <v>6.691532795185348</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>12.90006644248746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.696626967478048</v>
+      </c>
+      <c r="M5">
+        <v>12.9029242577017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.74210934709705</v>
+        <v>18.74105898595489</v>
       </c>
       <c r="C6">
-        <v>12.22479814782994</v>
+        <v>12.22244907084484</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.613737808530407</v>
+        <v>4.620402664009606</v>
       </c>
       <c r="F6">
-        <v>29.74874961233559</v>
+        <v>29.72807061696336</v>
       </c>
       <c r="G6">
-        <v>26.9887863711244</v>
+        <v>25.40216657092832</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>27.0113527187458</v>
       </c>
       <c r="I6">
-        <v>10.90281604140056</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.8919475091574</v>
       </c>
       <c r="K6">
-        <v>6.670568705939213</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>12.85666840446532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.675640554726684</v>
+      </c>
+      <c r="M6">
+        <v>12.85952152682564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.22911878920936</v>
+        <v>19.22797253391702</v>
       </c>
       <c r="C7">
-        <v>12.5150527569145</v>
+        <v>12.51253667270591</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.640985711925031</v>
+        <v>4.647782919325301</v>
       </c>
       <c r="F7">
-        <v>30.37993782140778</v>
+        <v>30.35877388663734</v>
       </c>
       <c r="G7">
-        <v>27.38684304062753</v>
+        <v>25.87835554719207</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>27.40939438049269</v>
       </c>
       <c r="I7">
-        <v>10.87747384369051</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.86626232844038</v>
       </c>
       <c r="K7">
-        <v>6.81483480120498</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.15529893667612</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.820059734069857</v>
+      </c>
+      <c r="M7">
+        <v>13.15818379708823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.27048459344594</v>
+        <v>21.26889914927372</v>
       </c>
       <c r="C8">
-        <v>13.73574945183394</v>
+        <v>13.73252001150666</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.764318980993871</v>
+        <v>4.771693068531998</v>
       </c>
       <c r="F8">
-        <v>33.08556291940589</v>
+        <v>33.06235828229312</v>
       </c>
       <c r="G8">
-        <v>29.14740524653832</v>
+        <v>27.95200769762737</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>29.17010839955176</v>
       </c>
       <c r="I8">
-        <v>10.77830794603811</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.7655449918944</v>
       </c>
       <c r="K8">
-        <v>7.42062297015254</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>14.40926304877801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>7.426477873435466</v>
+      </c>
+      <c r="M8">
+        <v>14.41226603771618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.90198419782467</v>
+        <v>24.89945529524969</v>
       </c>
       <c r="C9">
-        <v>15.92171130990292</v>
+        <v>15.91713349948857</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.01613389278437</v>
+        <v>5.024598815279798</v>
       </c>
       <c r="F9">
-        <v>38.09062294676291</v>
+        <v>38.06373302951924</v>
       </c>
       <c r="G9">
-        <v>32.6028949664896</v>
+        <v>31.90716964098674</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>32.62664116829689</v>
       </c>
       <c r="I9">
-        <v>10.63761859652742</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.62163609705951</v>
       </c>
       <c r="K9">
-        <v>8.499049538415868</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>16.6451057773508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>8.505980883853088</v>
+      </c>
+      <c r="M9">
+        <v>16.64824836560565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.35996370609557</v>
+        <v>27.35666142091789</v>
       </c>
       <c r="C10">
-        <v>17.41089774790589</v>
+        <v>17.40532561129822</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.206391242478963</v>
+        <v>5.215619949907095</v>
       </c>
       <c r="F10">
-        <v>41.76220783770447</v>
+        <v>41.73262542511179</v>
       </c>
       <c r="G10">
-        <v>35.14157535518711</v>
+        <v>34.74530470140752</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>35.16650163406553</v>
       </c>
       <c r="I10">
-        <v>10.57636590526259</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.55787250029697</v>
       </c>
       <c r="K10">
-        <v>9.226729017546235</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>18.15936156533952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>9.234357630799799</v>
+      </c>
+      <c r="M10">
+        <v>18.16253588394311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.43672310698778</v>
+        <v>28.43304285972021</v>
       </c>
       <c r="C11">
-        <v>18.0656765764562</v>
+        <v>18.05964253901855</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.293979372959431</v>
+        <v>5.303544583646924</v>
       </c>
       <c r="F11">
-        <v>43.40153873750396</v>
+        <v>43.37082363127602</v>
       </c>
       <c r="G11">
-        <v>36.29812242866362</v>
+        <v>36.02414497660739</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>36.32366607330579</v>
       </c>
       <c r="I11">
-        <v>10.56015581702342</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.54048071552689</v>
       </c>
       <c r="K11">
-        <v>9.54438607719023</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>18.82244381061177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>9.552312039937368</v>
+      </c>
+      <c r="M11">
+        <v>18.82561313127498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.83891104716126</v>
+        <v>28.83508299259974</v>
       </c>
       <c r="C12">
-        <v>18.31063142293546</v>
+        <v>18.30442023007979</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.327293394684384</v>
+        <v>5.336984214715478</v>
       </c>
       <c r="F12">
-        <v>44.01556070101878</v>
+        <v>43.98441769138882</v>
       </c>
       <c r="G12">
-        <v>36.73660402868189</v>
+        <v>36.50700661023125</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>36.76239222747464</v>
       </c>
       <c r="I12">
-        <v>10.55594435053823</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.53581548215474</v>
       </c>
       <c r="K12">
-        <v>9.662818650448896</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>19.07003762332694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>9.670854379864181</v>
+      </c>
+      <c r="M12">
+        <v>19.07320183489117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.75253300506215</v>
+        <v>28.74873700843989</v>
       </c>
       <c r="C13">
-        <v>18.25800461629662</v>
+        <v>18.25183169222741</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.320112103900308</v>
+        <v>5.329775956574021</v>
       </c>
       <c r="F13">
-        <v>43.88361260972246</v>
+        <v>43.85256173215782</v>
       </c>
       <c r="G13">
-        <v>36.64214011706559</v>
+        <v>36.40306926749401</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>36.66787518102116</v>
       </c>
       <c r="I13">
-        <v>10.55676124115332</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.53673038849688</v>
       </c>
       <c r="K13">
-        <v>9.637393525880881</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>19.01686600604474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>9.645405740913812</v>
+      </c>
+      <c r="M13">
+        <v>19.0200314686555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.46992028582767</v>
+        <v>28.46622797816276</v>
       </c>
       <c r="C14">
-        <v>18.08588754392341</v>
+        <v>18.07983898226371</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.296717202515929</v>
+        <v>5.306292785026419</v>
       </c>
       <c r="F14">
-        <v>43.45218726831764</v>
+        <v>43.42143694516623</v>
       </c>
       <c r="G14">
-        <v>36.33418404885617</v>
+        <v>36.06389600513016</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>36.35974760201647</v>
       </c>
       <c r="I14">
-        <v>10.55976913948057</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.54005683564805</v>
       </c>
       <c r="K14">
-        <v>9.554166407015964</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>18.84288239417241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>9.562101457047465</v>
+      </c>
+      <c r="M14">
+        <v>18.84605136169642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.29610067637493</v>
+        <v>28.29247124088275</v>
       </c>
       <c r="C15">
-        <v>17.980079243542</v>
+        <v>17.97410653702802</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.282406208987832</v>
+        <v>5.291927479353896</v>
       </c>
       <c r="F15">
-        <v>43.18706142852274</v>
+        <v>43.15649529861048</v>
       </c>
       <c r="G15">
-        <v>36.14563055767187</v>
+        <v>35.85597203897903</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>36.17109043359964</v>
       </c>
       <c r="I15">
-        <v>10.56187063014967</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.54235261066398</v>
       </c>
       <c r="K15">
-        <v>9.502947639841706</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>18.73586302675861</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>9.510835055485229</v>
+      </c>
+      <c r="M15">
+        <v>18.73903370827217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.28879464152363</v>
+        <v>27.28551645644798</v>
       </c>
       <c r="C16">
-        <v>17.367671984338</v>
+        <v>17.36212977049574</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.200687665211942</v>
+        <v>5.209894140634627</v>
       </c>
       <c r="F16">
-        <v>41.65410223310796</v>
+        <v>41.62459405597228</v>
       </c>
       <c r="G16">
-        <v>35.06604729771414</v>
+        <v>34.66151033174193</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>35.09093478240977</v>
       </c>
       <c r="I16">
-        <v>10.57768037610365</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.55926335098986</v>
       </c>
       <c r="K16">
-        <v>9.205705698073155</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>18.11552590732427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>9.213314481597553</v>
+      </c>
+      <c r="M16">
+        <v>18.11870012732101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.66050924403604</v>
+        <v>26.65743924524455</v>
       </c>
       <c r="C17">
-        <v>16.98635077571234</v>
+        <v>16.9810696292666</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.150818148360391</v>
+        <v>5.159828534850495</v>
       </c>
       <c r="F17">
-        <v>40.70115035706294</v>
+        <v>40.6722943290896</v>
       </c>
       <c r="G17">
-        <v>34.40435015570023</v>
+        <v>33.92582149432638</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>34.42890655820879</v>
       </c>
       <c r="I17">
-        <v>10.59053085597475</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.57277870541612</v>
       </c>
       <c r="K17">
-        <v>9.019976443524831</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>17.72850662542193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>9.027409231876774</v>
+      </c>
+      <c r="M17">
+        <v>17.73167776402363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.29521412394</v>
+        <v>26.29226147254432</v>
       </c>
       <c r="C18">
-        <v>16.76487411840538</v>
+        <v>16.75974228877281</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.122232200608366</v>
+        <v>5.131128786690907</v>
       </c>
       <c r="F18">
-        <v>40.1482983631592</v>
+        <v>40.11981894392758</v>
       </c>
       <c r="G18">
-        <v>34.02389435446973</v>
+        <v>33.50149160513241</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>34.0482679581155</v>
       </c>
       <c r="I18">
-        <v>10.59900190015476</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.5816284874643</v>
       </c>
       <c r="K18">
-        <v>8.911887104304524</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>17.5034648282653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>8.91921679692644</v>
+      </c>
+      <c r="M18">
+        <v>17.50663239506587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.17084668148967</v>
+        <v>26.16793337547916</v>
       </c>
       <c r="C19">
-        <v>16.68950917123852</v>
+        <v>16.68442777718926</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.112570452839371</v>
+        <v>5.121428340882021</v>
       </c>
       <c r="F19">
-        <v>39.96028656017812</v>
+        <v>39.93193494538132</v>
       </c>
       <c r="G19">
-        <v>33.89509523821359</v>
+        <v>33.35760930430074</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>33.91940828421844</v>
       </c>
       <c r="I19">
-        <v>10.60204846917734</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.58480267741141</v>
       </c>
       <c r="K19">
-        <v>8.875071219316418</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>17.42684501209482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>8.882365683848565</v>
+      </c>
+      <c r="M19">
+        <v>17.43001107203159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.72779451493098</v>
+        <v>26.72470260838923</v>
       </c>
       <c r="C20">
-        <v>17.02716389245159</v>
+        <v>17.02185504792736</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.156116774875938</v>
+        <v>5.165148142156571</v>
       </c>
       <c r="F20">
-        <v>40.803081373959</v>
+        <v>40.77415577504839</v>
       </c>
       <c r="G20">
-        <v>34.47477335947569</v>
+        <v>34.00425692896996</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>34.49936422225828</v>
       </c>
       <c r="I20">
-        <v>10.58904944950305</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.5712269072984</v>
       </c>
       <c r="K20">
-        <v>9.0398778961481</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>17.76995649195818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>9.047329612626061</v>
+      </c>
+      <c r="M20">
+        <v>17.77312814761181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.5530779176898</v>
+        <v>28.54935528943281</v>
       </c>
       <c r="C21">
-        <v>18.13652150165743</v>
+        <v>18.13043648028244</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.303584877387834</v>
+        <v>5.313186438316991</v>
       </c>
       <c r="F21">
-        <v>43.57908677095929</v>
+        <v>43.54824815029497</v>
       </c>
       <c r="G21">
-        <v>36.42462117214684</v>
+        <v>36.16355413732624</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>36.45023481649243</v>
       </c>
       <c r="I21">
-        <v>10.55883115296039</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.53902545889071</v>
       </c>
       <c r="K21">
-        <v>9.578662062088117</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>18.89407884199025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>9.586619854150046</v>
+      </c>
+      <c r="M21">
+        <v>18.89724687112486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.71383587877054</v>
+        <v>29.70967317253075</v>
       </c>
       <c r="C22">
-        <v>18.84424303590379</v>
+        <v>18.83763714213436</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.400819542436295</v>
+        <v>5.410783039900227</v>
       </c>
       <c r="F22">
-        <v>45.35425685474601</v>
+        <v>45.32217321388895</v>
       </c>
       <c r="G22">
-        <v>37.70222820309721</v>
+        <v>37.56683766318998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>37.72857266945216</v>
       </c>
       <c r="I22">
-        <v>10.55045970677427</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.52932101501933</v>
       </c>
       <c r="K22">
-        <v>9.920001359981159</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>19.60846857135134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>9.928273387069902</v>
+      </c>
+      <c r="M22">
+        <v>19.61161521931015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.09711659270254</v>
+        <v>29.09319167219561</v>
       </c>
       <c r="C23">
-        <v>18.46800435546438</v>
+        <v>18.4616780325834</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.348844715759643</v>
+        <v>5.358616106520384</v>
       </c>
       <c r="F23">
-        <v>44.41022347979939</v>
+        <v>44.37880429458072</v>
       </c>
       <c r="G23">
-        <v>37.01991977986875</v>
+        <v>36.81845362536061</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>37.04586876394328</v>
       </c>
       <c r="I23">
-        <v>10.55379302124375</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.53336934585029</v>
       </c>
       <c r="K23">
-        <v>9.738784794593583</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>19.22896631292029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>9.746890616694897</v>
+      </c>
+      <c r="M23">
+        <v>19.23212627514106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.69738759834296</v>
+        <v>26.69430560352168</v>
       </c>
       <c r="C24">
-        <v>17.0087193099209</v>
+        <v>17.00342299004575</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.153721001656979</v>
+        <v>5.162742886826315</v>
       </c>
       <c r="F24">
-        <v>40.75701392699783</v>
+        <v>40.72811977578969</v>
       </c>
       <c r="G24">
-        <v>34.4429351646647</v>
+        <v>33.96880056912731</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>34.46751042441083</v>
       </c>
       <c r="I24">
-        <v>10.58971583815581</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.5719251308908</v>
       </c>
       <c r="K24">
-        <v>9.030884538020659</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>17.75122493144404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>9.03832770305632</v>
+      </c>
+      <c r="M24">
+        <v>17.75439635891561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.95775236418147</v>
+        <v>23.95549025549804</v>
       </c>
       <c r="C25">
-        <v>15.3516744145812</v>
+        <v>15.34745934074899</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.947040459325113</v>
+        <v>4.955215960087537</v>
       </c>
       <c r="F25">
-        <v>36.76936120840154</v>
+        <v>36.74343858292335</v>
       </c>
       <c r="G25">
-        <v>31.66831083013466</v>
+        <v>30.84950951183871</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>31.69169910839386</v>
       </c>
       <c r="I25">
-        <v>10.6690396072981</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.65395094227279</v>
       </c>
       <c r="K25">
-        <v>8.218846908058222</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>16.06343133092963</v>
+        <v>8.225503679666247</v>
+      </c>
+      <c r="M25">
+        <v>16.06654739705852</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.79617986920118</v>
+        <v>25.97689539159371</v>
       </c>
       <c r="C2">
-        <v>14.04870213876239</v>
+        <v>14.24534366111314</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.805974424409069</v>
+        <v>6.8035242084787</v>
       </c>
       <c r="F2">
-        <v>33.77487465248496</v>
+        <v>35.64174717316765</v>
       </c>
       <c r="G2">
-        <v>28.50657742398673</v>
+        <v>2.091967878777228</v>
       </c>
       <c r="H2">
-        <v>29.64770186928695</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.74158332388584</v>
+        <v>5.469811307791155</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.583306063009468</v>
+        <v>7.709579213466053</v>
       </c>
       <c r="M2">
-        <v>14.73671122478892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.85344426659096</v>
+      </c>
+      <c r="O2">
+        <v>26.26998949474376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.23832861595184</v>
+        <v>24.34887200574058</v>
       </c>
       <c r="C3">
-        <v>13.11569626263288</v>
+        <v>13.2803525433704</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.707328356962858</v>
+        <v>6.78569958834508</v>
       </c>
       <c r="F3">
-        <v>31.68575291006424</v>
+        <v>34.47525348241437</v>
       </c>
       <c r="G3">
-        <v>26.88984798640447</v>
+        <v>2.102523505475431</v>
       </c>
       <c r="H3">
-        <v>28.26299272915285</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.81491372783882</v>
+        <v>5.567427914279097</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.120097520536999</v>
+        <v>7.4980593205205</v>
       </c>
       <c r="M3">
-        <v>13.7786195820248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.14095880314055</v>
+      </c>
+      <c r="O3">
+        <v>25.50137234003021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.2336103987758</v>
+        <v>23.31135419278319</v>
       </c>
       <c r="C4">
-        <v>12.51589783642563</v>
+        <v>12.6585456070052</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.648105050601181</v>
+        <v>6.776201953099843</v>
       </c>
       <c r="F4">
-        <v>30.36611147203018</v>
+        <v>33.77596791659904</v>
       </c>
       <c r="G4">
-        <v>25.88391333465059</v>
+        <v>2.10915510760603</v>
       </c>
       <c r="H4">
-        <v>27.4140550716119</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.86596835040517</v>
+        <v>5.628445468586205</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.82173269548243</v>
+        <v>7.368935140707563</v>
       </c>
       <c r="M4">
-        <v>13.16164333989821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.32008797864778</v>
+      </c>
+      <c r="O4">
+        <v>25.04921018325497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.81184407810931</v>
+        <v>22.87924202061326</v>
       </c>
       <c r="C5">
-        <v>12.26459585034078</v>
+        <v>12.39768975969279</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.624328566668685</v>
+        <v>6.772679380697902</v>
       </c>
       <c r="F5">
-        <v>29.81938381723745</v>
+        <v>33.49545784535057</v>
       </c>
       <c r="G5">
-        <v>25.4709193972976</v>
+        <v>2.111897786797667</v>
       </c>
       <c r="H5">
-        <v>27.06866304346849</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.88817785869275</v>
+        <v>5.653600677094822</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.696626967478048</v>
+        <v>7.316561773678419</v>
       </c>
       <c r="M5">
-        <v>12.9029242577017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.39379205978769</v>
+      </c>
+      <c r="O5">
+        <v>24.86993086146354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.74105898595489</v>
+        <v>22.8069355578102</v>
       </c>
       <c r="C6">
-        <v>12.22244907084484</v>
+        <v>12.35392142778439</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.620402664009606</v>
+        <v>6.772115029010497</v>
       </c>
       <c r="F6">
-        <v>29.72807061696336</v>
+        <v>33.44915430085892</v>
       </c>
       <c r="G6">
-        <v>25.40216657092832</v>
+        <v>2.11235570500218</v>
       </c>
       <c r="H6">
-        <v>27.0113527187458</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.8919475091574</v>
+        <v>5.657795716898256</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.675640554726684</v>
+        <v>7.307881800497137</v>
       </c>
       <c r="M6">
-        <v>12.85952152682564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.40607484795978</v>
+      </c>
+      <c r="O6">
+        <v>24.84046266536571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.22797253391702</v>
+        <v>23.30556394388261</v>
       </c>
       <c r="C7">
-        <v>12.51253667270591</v>
+        <v>12.65505795608941</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.647782919325301</v>
+        <v>6.776153058217284</v>
       </c>
       <c r="F7">
-        <v>30.35877388663734</v>
+        <v>33.77216655813442</v>
       </c>
       <c r="G7">
-        <v>25.87835554719207</v>
+        <v>2.109191930296984</v>
       </c>
       <c r="H7">
-        <v>27.40939438049269</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.86626232844038</v>
+        <v>5.628783522535737</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.820059734069857</v>
+        <v>7.368227741780709</v>
       </c>
       <c r="M7">
-        <v>13.15818379708823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.32107904247601</v>
+      </c>
+      <c r="O7">
+        <v>25.04677218433052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.26889914927372</v>
+        <v>25.42352326793872</v>
       </c>
       <c r="C8">
-        <v>13.73252001150666</v>
+        <v>13.9186329150146</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.771693068531998</v>
+        <v>6.797067825125065</v>
       </c>
       <c r="F8">
-        <v>33.06235828229312</v>
+        <v>35.23613320528766</v>
       </c>
       <c r="G8">
-        <v>27.95200769762737</v>
+        <v>2.095577762713323</v>
       </c>
       <c r="H8">
-        <v>29.17010839955176</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.7655449918944</v>
+        <v>5.503256607977955</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.426477873435466</v>
+        <v>7.636524623672737</v>
       </c>
       <c r="M8">
-        <v>14.41226603771618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.95207518186351</v>
+      </c>
+      <c r="O8">
+        <v>26.00087144526707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.89945529524969</v>
+        <v>29.30170990954405</v>
       </c>
       <c r="C9">
-        <v>15.91713349948857</v>
+        <v>16.16913956451218</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.024598815279798</v>
+        <v>6.850385607110608</v>
       </c>
       <c r="F9">
-        <v>38.06373302951924</v>
+        <v>38.23428091901815</v>
       </c>
       <c r="G9">
-        <v>31.90716964098674</v>
+        <v>2.069953522889925</v>
       </c>
       <c r="H9">
-        <v>32.62664116829689</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.62163609705951</v>
+        <v>5.264788618307349</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.505980883853088</v>
+        <v>8.166328060680922</v>
       </c>
       <c r="M9">
-        <v>16.64824836560565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12.24635959850271</v>
+      </c>
+      <c r="O9">
+        <v>28.02876639985499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.35666142091789</v>
+        <v>32.11324415305572</v>
       </c>
       <c r="C10">
-        <v>17.40532561129822</v>
+        <v>17.69218771405125</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.215619949907095</v>
+        <v>6.898394665719176</v>
       </c>
       <c r="F10">
-        <v>41.73262542511179</v>
+        <v>40.50805272037332</v>
       </c>
       <c r="G10">
-        <v>34.74530470140752</v>
+        <v>2.051595351211349</v>
       </c>
       <c r="H10">
-        <v>35.16650163406553</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.55787250029697</v>
+        <v>5.092959179781836</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.234357630799799</v>
+        <v>8.555200305342375</v>
       </c>
       <c r="M10">
-        <v>18.16253588394311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.73474418146041</v>
+      </c>
+      <c r="O10">
+        <v>29.61587590248824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.43304285972021</v>
+        <v>33.34293896868033</v>
       </c>
       <c r="C11">
-        <v>18.05964253901855</v>
+        <v>18.3588868039351</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.303544583646924</v>
+        <v>6.922514973658066</v>
       </c>
       <c r="F11">
-        <v>43.37082363127602</v>
+        <v>41.5575592202487</v>
       </c>
       <c r="G11">
-        <v>36.02414497660739</v>
+        <v>2.043297967661755</v>
       </c>
       <c r="H11">
-        <v>36.32366607330579</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.54048071552689</v>
+        <v>5.015208922680149</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.552312039937368</v>
+        <v>8.731617212321243</v>
       </c>
       <c r="M11">
-        <v>18.82561313127498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.50251109574077</v>
+      </c>
+      <c r="O11">
+        <v>30.3599731871017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.83508299259974</v>
+        <v>33.80177904284481</v>
       </c>
       <c r="C12">
-        <v>18.30442023007979</v>
+        <v>18.60779374566949</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.336984214715478</v>
+        <v>6.932012856139136</v>
       </c>
       <c r="F12">
-        <v>43.98441769138882</v>
+        <v>41.95721864783006</v>
       </c>
       <c r="G12">
-        <v>36.50700661023125</v>
+        <v>2.040159198058954</v>
       </c>
       <c r="H12">
-        <v>36.76239222747464</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.53581548215474</v>
+        <v>4.985799014697332</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.670854379864181</v>
+        <v>8.798328741230389</v>
       </c>
       <c r="M12">
-        <v>19.07320183489117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.41455463976951</v>
+      </c>
+      <c r="O12">
+        <v>30.64506100064094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.74873700843989</v>
+        <v>33.70325810895761</v>
       </c>
       <c r="C13">
-        <v>18.25183169222741</v>
+        <v>18.55434190734819</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.329775956574021</v>
+        <v>6.929950486824064</v>
       </c>
       <c r="F13">
-        <v>43.85256173215782</v>
+        <v>41.87104376110292</v>
       </c>
       <c r="G13">
-        <v>36.40306926749401</v>
+        <v>2.040835120161047</v>
       </c>
       <c r="H13">
-        <v>36.66787518102116</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.53673038849688</v>
+        <v>4.99213197642506</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.645405740913812</v>
+        <v>8.783965676624925</v>
       </c>
       <c r="M13">
-        <v>19.0200314686555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11.43349975852906</v>
+      </c>
+      <c r="O13">
+        <v>30.58351206520264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.46622797816276</v>
+        <v>33.3808229695033</v>
       </c>
       <c r="C14">
-        <v>18.07983898226371</v>
+        <v>18.37943457617498</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.306292785026419</v>
+        <v>6.923288846035078</v>
       </c>
       <c r="F14">
-        <v>43.42143694516623</v>
+        <v>41.59039407344525</v>
       </c>
       <c r="G14">
-        <v>36.06389600513016</v>
+        <v>2.043039701311615</v>
       </c>
       <c r="H14">
-        <v>36.35974760201647</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.54005683564805</v>
+        <v>5.012788864809601</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.562101457047465</v>
+        <v>8.737107594714425</v>
       </c>
       <c r="M14">
-        <v>18.84605136169642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.49527568650826</v>
+      </c>
+      <c r="O14">
+        <v>30.38336013122997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.29247124088275</v>
+        <v>33.18244290966553</v>
       </c>
       <c r="C15">
-        <v>17.97410653702802</v>
+        <v>18.27184192671576</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.291927479353896</v>
+        <v>6.919256980951498</v>
       </c>
       <c r="F15">
-        <v>43.15649529861048</v>
+        <v>41.41878194254711</v>
       </c>
       <c r="G15">
-        <v>35.85597203897903</v>
+        <v>2.04439035434622</v>
       </c>
       <c r="H15">
-        <v>36.17109043359964</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.54235261066398</v>
+        <v>5.025445186932832</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.510835055485229</v>
+        <v>8.708392896545607</v>
       </c>
       <c r="M15">
-        <v>18.73903370827217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.53311058908867</v>
+      </c>
+      <c r="O15">
+        <v>30.26119789357263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.28551645644798</v>
+        <v>32.03191085861864</v>
       </c>
       <c r="C16">
-        <v>17.36212977049574</v>
+        <v>17.64810796102181</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.209894140634627</v>
+        <v>6.896867192710619</v>
       </c>
       <c r="F16">
-        <v>41.62459405597228</v>
+        <v>40.43977290015219</v>
       </c>
       <c r="G16">
-        <v>34.66151033174193</v>
+        <v>2.052138318333777</v>
       </c>
       <c r="H16">
-        <v>35.09093478240977</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.55926335098986</v>
+        <v>5.098046408756441</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.213314481597553</v>
+        <v>8.543659045654833</v>
       </c>
       <c r="M16">
-        <v>18.11870012732101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.74992398962559</v>
+      </c>
+      <c r="O16">
+        <v>29.56770258079966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.65743924524455</v>
+        <v>31.31365009591625</v>
       </c>
       <c r="C17">
-        <v>16.9810696292666</v>
+        <v>17.25890711883539</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.159828534850495</v>
+        <v>6.883739808784614</v>
       </c>
       <c r="F17">
-        <v>40.6722943290896</v>
+        <v>39.84307933990502</v>
       </c>
       <c r="G17">
-        <v>33.92582149432638</v>
+        <v>2.056902221057366</v>
       </c>
       <c r="H17">
-        <v>34.42890655820879</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.57277870541612</v>
+        <v>5.142672474718675</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.027409231876774</v>
+        <v>8.442456354734901</v>
       </c>
       <c r="M17">
-        <v>17.73167776402363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>11.8830010028781</v>
+      </c>
+      <c r="O17">
+        <v>29.14800767676975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.29226147254432</v>
+        <v>30.89586764225327</v>
       </c>
       <c r="C18">
-        <v>16.75974228877281</v>
+        <v>17.03257484631902</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.131128786690907</v>
+        <v>6.876401481931875</v>
       </c>
       <c r="F18">
-        <v>40.11981894392758</v>
+        <v>39.50129587046333</v>
       </c>
       <c r="G18">
-        <v>33.50149160513241</v>
+        <v>2.059647657886685</v>
       </c>
       <c r="H18">
-        <v>34.0482679581155</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.5816284874643</v>
+        <v>5.168381088351236</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.91921679692644</v>
+        <v>8.384202692057871</v>
       </c>
       <c r="M18">
-        <v>17.50663239506587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>11.95959638052735</v>
+      </c>
+      <c r="O18">
+        <v>28.90868053820225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.16793337547916</v>
+        <v>30.75360624809388</v>
       </c>
       <c r="C19">
-        <v>16.68442777718926</v>
+        <v>16.95551193853223</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.121428340882021</v>
+        <v>6.873952289801193</v>
       </c>
       <c r="F19">
-        <v>39.93193494538132</v>
+        <v>39.38581713666058</v>
       </c>
       <c r="G19">
-        <v>33.35760930430074</v>
+        <v>2.060578264672023</v>
       </c>
       <c r="H19">
-        <v>33.91940828421844</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.58480267741141</v>
+        <v>5.17709341050871</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.882365683848565</v>
+        <v>8.36447223701011</v>
       </c>
       <c r="M19">
-        <v>17.43001107203159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>11.98554190796094</v>
+      </c>
+      <c r="O19">
+        <v>28.82800086113502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.72470260838923</v>
+        <v>31.39059045067339</v>
       </c>
       <c r="C20">
-        <v>17.02185504792736</v>
+        <v>17.30059290728837</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.165148142156571</v>
+        <v>6.88511503684472</v>
       </c>
       <c r="F20">
-        <v>40.77415577504839</v>
+        <v>39.9064513888776</v>
       </c>
       <c r="G20">
-        <v>34.00425692896996</v>
+        <v>2.056394570767703</v>
       </c>
       <c r="H20">
-        <v>34.49936422225828</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.5712269072984</v>
+        <v>5.137917915608326</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.047329612626061</v>
+        <v>8.453234369390136</v>
       </c>
       <c r="M20">
-        <v>17.77312814761181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.86882985228602</v>
+      </c>
+      <c r="O20">
+        <v>29.19246985671964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.54935528943281</v>
+        <v>33.47571267045488</v>
       </c>
       <c r="C21">
-        <v>18.13043648028244</v>
+        <v>18.43090391017127</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.313186438316991</v>
+        <v>6.925235333869587</v>
       </c>
       <c r="F21">
-        <v>43.54824815029497</v>
+        <v>41.67276622990542</v>
       </c>
       <c r="G21">
-        <v>36.16355413732624</v>
+        <v>2.042392112117545</v>
       </c>
       <c r="H21">
-        <v>36.45023481649243</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.53902545889071</v>
+        <v>5.00672078249434</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.586619854150046</v>
+        <v>8.750873640792669</v>
       </c>
       <c r="M21">
-        <v>18.89724687112486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.4771317307896</v>
+      </c>
+      <c r="O21">
+        <v>30.44205829495924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.70967317253075</v>
+        <v>34.79887491097585</v>
       </c>
       <c r="C22">
-        <v>18.83763714213436</v>
+        <v>19.14900485556778</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.410783039900227</v>
+        <v>6.953599515486721</v>
       </c>
       <c r="F22">
-        <v>45.32217321388895</v>
+        <v>42.84026094138398</v>
       </c>
       <c r="G22">
-        <v>37.56683766318998</v>
+        <v>2.033257250929383</v>
       </c>
       <c r="H22">
-        <v>37.72857266945216</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.52932101501933</v>
+        <v>4.92115096678735</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.928273387069902</v>
+        <v>8.944847237583991</v>
       </c>
       <c r="M22">
-        <v>19.61161521931015</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.22100244363107</v>
+      </c>
+      <c r="O22">
+        <v>31.27816147039569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.09319167219561</v>
+        <v>34.09619933700959</v>
       </c>
       <c r="C23">
-        <v>18.4616780325834</v>
+        <v>18.76755407936212</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.358616106520384</v>
+        <v>6.938251359418586</v>
       </c>
       <c r="F23">
-        <v>44.37880429458072</v>
+        <v>42.21590877304307</v>
       </c>
       <c r="G23">
-        <v>36.81845362536061</v>
+        <v>2.038132813873271</v>
       </c>
       <c r="H23">
-        <v>37.04586876394328</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.53336934585029</v>
+        <v>4.966814652147155</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.746890616694897</v>
+        <v>8.841375882229933</v>
       </c>
       <c r="M23">
-        <v>19.23212627514106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.35774617140291</v>
+      </c>
+      <c r="O23">
+        <v>30.83007992360861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.69430560352168</v>
+        <v>31.35582082639529</v>
       </c>
       <c r="C24">
-        <v>17.00342299004575</v>
+        <v>17.28175479940823</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.162742886826315</v>
+        <v>6.884492648568891</v>
       </c>
       <c r="F24">
-        <v>40.72811977578969</v>
+        <v>39.87779695274457</v>
       </c>
       <c r="G24">
-        <v>33.96880056912731</v>
+        <v>2.056624058557761</v>
       </c>
       <c r="H24">
-        <v>34.46751042441083</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.5719251308908</v>
+        <v>5.14006728623253</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.03832770305632</v>
+        <v>8.448361847800388</v>
       </c>
       <c r="M24">
-        <v>17.75439635891561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.87523635002261</v>
+      </c>
+      <c r="O24">
+        <v>29.17236240628293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.95549025549804</v>
+        <v>28.26323275780794</v>
       </c>
       <c r="C25">
-        <v>15.34745934074899</v>
+        <v>15.58387399025267</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.955215960087537</v>
+        <v>6.834518172681564</v>
       </c>
       <c r="F25">
-        <v>36.74343858292335</v>
+        <v>37.41041920196144</v>
       </c>
       <c r="G25">
-        <v>30.84950951183871</v>
+        <v>2.076788725556759</v>
       </c>
       <c r="H25">
-        <v>31.69169910839386</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.65395094227279</v>
+        <v>5.328607801126672</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.225503679666247</v>
+        <v>8.022903010144596</v>
       </c>
       <c r="M25">
-        <v>16.06654739705852</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.43575642791119</v>
+      </c>
+      <c r="O25">
+        <v>27.46329401888379</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.97689539159371</v>
+        <v>24.46177326802931</v>
       </c>
       <c r="C2">
-        <v>14.24534366111314</v>
+        <v>12.93365328911648</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.8035242084787</v>
+        <v>10.00400084794458</v>
       </c>
       <c r="F2">
-        <v>35.64174717316765</v>
+        <v>22.61625995920781</v>
       </c>
       <c r="G2">
-        <v>2.091967878777228</v>
+        <v>16.09366755113461</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.349087911495395</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.19077300579938</v>
       </c>
       <c r="J2">
-        <v>5.469811307791155</v>
+        <v>5.052522084904916</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.709579213466053</v>
+        <v>9.809089426594035</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.85344426659096</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>26.26998949474376</v>
+        <v>11.2606156203268</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.34887200574058</v>
+        <v>22.84989385374831</v>
       </c>
       <c r="C3">
-        <v>13.2803525433704</v>
+        <v>12.4989315477523</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.78569958834508</v>
+        <v>9.970549571835102</v>
       </c>
       <c r="F3">
-        <v>34.47525348241437</v>
+        <v>22.24238624937054</v>
       </c>
       <c r="G3">
-        <v>2.102523505475431</v>
+        <v>15.95108562795051</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.463472525892316</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.57661716069191</v>
       </c>
       <c r="J3">
-        <v>5.567427914279097</v>
+        <v>4.993491469540452</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.4980593205205</v>
+        <v>9.440581734829664</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.14095880314055</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>25.50137234003021</v>
+        <v>11.38527072711096</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.31135419278319</v>
+        <v>21.80054373745354</v>
       </c>
       <c r="C4">
-        <v>12.6585456070052</v>
+        <v>12.2255766391383</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.776201953099843</v>
+        <v>9.955749581855519</v>
       </c>
       <c r="F4">
-        <v>33.77596791659904</v>
+        <v>22.03418949871228</v>
       </c>
       <c r="G4">
-        <v>2.10915510760603</v>
+        <v>15.89919349476392</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.539782197605131</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.82335229346223</v>
       </c>
       <c r="J4">
-        <v>5.628445468586205</v>
+        <v>4.957155635776062</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.368935140707563</v>
+        <v>9.209688289363786</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.32008797864778</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>25.04921018325497</v>
+        <v>11.47721911447929</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.87924202061326</v>
+        <v>21.3578665947739</v>
       </c>
       <c r="C5">
-        <v>12.39768975969279</v>
+        <v>12.11269655985859</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.772679380697902</v>
+        <v>9.951133658548629</v>
       </c>
       <c r="F5">
-        <v>33.49545784535057</v>
+        <v>21.95469093976799</v>
       </c>
       <c r="G5">
-        <v>2.111897786797667</v>
+        <v>15.88663685776963</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.572344859218057</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11.92631202980887</v>
       </c>
       <c r="J5">
-        <v>5.653600677094822</v>
+        <v>4.942333731330484</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.316561773678419</v>
+        <v>9.114562907106393</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.39379205978769</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>24.86993086146354</v>
+        <v>11.51834760981725</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.8069355578102</v>
+        <v>21.28344928136722</v>
       </c>
       <c r="C6">
-        <v>12.35392142778439</v>
+        <v>12.09386729612003</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.772115029010497</v>
+        <v>9.950451812490627</v>
       </c>
       <c r="F6">
-        <v>33.44915430085892</v>
+        <v>21.94181170732909</v>
       </c>
       <c r="G6">
-        <v>2.11235570500218</v>
+        <v>15.88505873788197</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.577838671887083</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11.94355270172186</v>
       </c>
       <c r="J6">
-        <v>5.657795716898256</v>
+        <v>4.939871910974826</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.307881800497137</v>
+        <v>9.098708982318854</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.40607484795978</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>24.84046266536571</v>
+        <v>11.52539179566585</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.30556394388261</v>
+        <v>21.79463468435952</v>
       </c>
       <c r="C7">
-        <v>12.65505795608941</v>
+        <v>12.22406013022972</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.776153058217284</v>
+        <v>9.955681637979465</v>
       </c>
       <c r="F7">
-        <v>33.77216655813442</v>
+        <v>22.03309577286532</v>
       </c>
       <c r="G7">
-        <v>2.109191930296984</v>
+        <v>15.89898990326002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.540215492523725</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.82473114115233</v>
       </c>
       <c r="J7">
-        <v>5.628783522535737</v>
+        <v>4.956955791439242</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.368227741780709</v>
+        <v>9.208409402514066</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.32107904247601</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>25.04677218433052</v>
+        <v>11.47775925268953</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.42352326793872</v>
+        <v>23.91834022612278</v>
       </c>
       <c r="C8">
-        <v>13.9186329150146</v>
+        <v>12.78517175695588</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.797067825125065</v>
+        <v>9.991259336141924</v>
       </c>
       <c r="F8">
-        <v>35.23613320528766</v>
+        <v>22.48290390627064</v>
       </c>
       <c r="G8">
-        <v>2.095577762713323</v>
+        <v>16.03689542019961</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.387227400000734</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.32173447025134</v>
       </c>
       <c r="J8">
-        <v>5.503256607977955</v>
+        <v>5.032191991276261</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.636524623672737</v>
+        <v>9.683061916551267</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.95207518186351</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>26.00087144526707</v>
+        <v>11.30026586960621</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.30170990954405</v>
+        <v>27.61256412808206</v>
       </c>
       <c r="C9">
-        <v>16.16913956451218</v>
+        <v>13.82933887733144</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.850385607110608</v>
+        <v>10.10773618896285</v>
       </c>
       <c r="F9">
-        <v>38.23428091901815</v>
+        <v>23.53471683771782</v>
       </c>
       <c r="G9">
-        <v>2.069953522889925</v>
+        <v>16.60406781611202</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.138502776712083</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10.41662470265316</v>
       </c>
       <c r="J9">
-        <v>5.264788618307349</v>
+        <v>5.178662347185587</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.166328060680922</v>
+        <v>10.57215487708649</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.24635959850271</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>28.02876639985499</v>
+        <v>11.08452763984116</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.11324415305572</v>
+        <v>30.0443478728973</v>
       </c>
       <c r="C10">
-        <v>17.69218771405125</v>
+        <v>14.5563318713674</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.898394665719176</v>
+        <v>10.22327408522482</v>
       </c>
       <c r="F10">
-        <v>40.50805272037332</v>
+        <v>24.41006047554859</v>
       </c>
       <c r="G10">
-        <v>2.051595351211349</v>
+        <v>17.21595862612574</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.99168954005735</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>9.807180084704715</v>
       </c>
       <c r="J10">
-        <v>5.092959179781836</v>
+        <v>5.28517339091473</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.555200305342375</v>
+        <v>11.19426074840227</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.73474418146041</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>29.61587590248824</v>
+        <v>11.02088140142419</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.34293896868033</v>
+        <v>31.090331107308</v>
       </c>
       <c r="C11">
-        <v>18.3588868039351</v>
+        <v>14.87734513975136</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.922514973658066</v>
+        <v>10.28262483179937</v>
       </c>
       <c r="F11">
-        <v>41.5575592202487</v>
+        <v>24.83007217166525</v>
       </c>
       <c r="G11">
-        <v>2.043297967661755</v>
+        <v>17.53843709799794</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.933849451698408</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>9.543842698789879</v>
       </c>
       <c r="J11">
-        <v>5.015208922680149</v>
+        <v>5.333298127621721</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.731617212321243</v>
+        <v>11.46957770553719</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.50251109574077</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>30.3599731871017</v>
+        <v>11.01563643367708</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.80177904284481</v>
+        <v>31.47783934740716</v>
       </c>
       <c r="C12">
-        <v>18.60779374566949</v>
+        <v>14.99744223976514</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.932012856139136</v>
+        <v>10.3060967592357</v>
       </c>
       <c r="F12">
-        <v>41.95721864783006</v>
+        <v>24.99220262353184</v>
       </c>
       <c r="G12">
-        <v>2.040159198058954</v>
+        <v>17.66695556288495</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.913338907190818</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>9.446328243445123</v>
       </c>
       <c r="J12">
-        <v>4.985799014697332</v>
+        <v>5.351467262204961</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.798328741230389</v>
+        <v>11.57266598470319</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.41455463976951</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>30.64506100064094</v>
+        <v>11.01731474853076</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.70325810895761</v>
+        <v>31.39476292532009</v>
       </c>
       <c r="C13">
-        <v>18.55434190734819</v>
+        <v>14.97164325770849</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.929950486824064</v>
+        <v>10.30099700429742</v>
       </c>
       <c r="F13">
-        <v>41.87104376110292</v>
+        <v>24.95714881920513</v>
       </c>
       <c r="G13">
-        <v>2.040835120161047</v>
+        <v>17.63899167256087</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.917692526582751</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>9.467227827062985</v>
       </c>
       <c r="J13">
-        <v>4.99213197642506</v>
+        <v>5.347556761213553</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.783965676624925</v>
+        <v>11.550516933335</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.43349975852906</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>30.58351206520264</v>
+        <v>11.01678629929651</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.3808229695033</v>
+        <v>31.12238318515305</v>
       </c>
       <c r="C14">
-        <v>18.37943457617498</v>
+        <v>14.8872552899939</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.923288846035078</v>
+        <v>10.28453578651098</v>
       </c>
       <c r="F14">
-        <v>41.59039407344525</v>
+        <v>24.84334932282772</v>
       </c>
       <c r="G14">
-        <v>2.043039701311615</v>
+        <v>17.54888192054189</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.932133498754535</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>9.535774568082889</v>
       </c>
       <c r="J14">
-        <v>5.012788864809601</v>
+        <v>5.334794050629892</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.737107594714425</v>
+        <v>11.47808257905842</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.49527568650826</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>30.38336013122997</v>
+        <v>11.01569962182078</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.18244290966553</v>
+        <v>30.95442742571833</v>
       </c>
       <c r="C15">
-        <v>18.27184192671576</v>
+        <v>14.83537275448544</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.919256980951498</v>
+        <v>10.2745832464785</v>
       </c>
       <c r="F15">
-        <v>41.41878194254711</v>
+        <v>24.77404338293638</v>
       </c>
       <c r="G15">
-        <v>2.04439035434622</v>
+        <v>17.49452175747328</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.941163603656508</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>9.578055608104247</v>
       </c>
       <c r="J15">
-        <v>5.025445186932832</v>
+        <v>5.326969185938757</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.708392896545607</v>
+        <v>11.43356060425589</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.53311058908867</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>30.26119789357263</v>
+        <v>11.01551872580458</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.03191085861864</v>
+        <v>29.97478489560683</v>
       </c>
       <c r="C16">
-        <v>17.64810796102181</v>
+        <v>14.53515158011165</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.896867192710619</v>
+        <v>10.21953382471499</v>
       </c>
       <c r="F16">
-        <v>40.43977290015219</v>
+        <v>24.38304601443352</v>
       </c>
       <c r="G16">
-        <v>2.052138318333777</v>
+        <v>17.19577796733529</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.995658400226322</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>9.82468616466312</v>
       </c>
       <c r="J16">
-        <v>5.098046408756441</v>
+        <v>5.282021080160386</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.543659045654833</v>
+        <v>11.17610786050856</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.74992398962559</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>29.56770258079966</v>
+        <v>11.02172314820034</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.31365009591625</v>
+        <v>29.3584314921689</v>
       </c>
       <c r="C17">
-        <v>17.25890711883539</v>
+        <v>14.34843879972266</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.883739808784614</v>
+        <v>10.1875173720744</v>
       </c>
       <c r="F17">
-        <v>39.84307933990502</v>
+        <v>24.14873074381797</v>
       </c>
       <c r="G17">
-        <v>2.056902221057366</v>
+        <v>17.02386823709804</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.031453171238843</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>9.979679531157016</v>
       </c>
       <c r="J17">
-        <v>5.142672474718675</v>
+        <v>5.254357475741184</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.442456354734901</v>
+        <v>11.01615251947587</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.8830010028781</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>29.14800767676975</v>
+        <v>11.03178427386763</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.89586764225327</v>
+        <v>28.99824552914183</v>
       </c>
       <c r="C18">
-        <v>17.03257484631902</v>
+        <v>14.2401369756301</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.876401481931875</v>
+        <v>10.16974052811018</v>
       </c>
       <c r="F18">
-        <v>39.50129587046333</v>
+        <v>24.01601575511513</v>
       </c>
       <c r="G18">
-        <v>2.059647657886685</v>
+        <v>16.92914391648448</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.052876579961584</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10.07012127099032</v>
       </c>
       <c r="J18">
-        <v>5.168381088351236</v>
+        <v>5.238415690925855</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.384202692057871</v>
+        <v>10.92343041982778</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.95959638052735</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>28.90868053820225</v>
+        <v>11.03978751721608</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.75360624809388</v>
+        <v>28.87531552430765</v>
       </c>
       <c r="C19">
-        <v>16.95551193853223</v>
+        <v>14.20331389966559</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.873952289801193</v>
+        <v>10.16383055469103</v>
       </c>
       <c r="F19">
-        <v>39.38581713666058</v>
+        <v>23.97143564187304</v>
       </c>
       <c r="G19">
-        <v>2.060578264672023</v>
+        <v>16.89778264086107</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.060270534934427</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.10095991713689</v>
       </c>
       <c r="J19">
-        <v>5.17709341050871</v>
+        <v>5.233013088713796</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.36447223701011</v>
+        <v>10.89191476897622</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.98554190796094</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>28.82800086113502</v>
+        <v>11.04287010101947</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.39059045067339</v>
+        <v>29.42463021246532</v>
       </c>
       <c r="C20">
-        <v>17.30059290728837</v>
+        <v>14.36840936505628</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.88511503684472</v>
+        <v>10.19085937714828</v>
       </c>
       <c r="F20">
-        <v>39.9064513888776</v>
+        <v>24.17346150637035</v>
       </c>
       <c r="G20">
-        <v>2.056394570767703</v>
+        <v>17.04173785342587</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.027555576066464</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>9.963044983882734</v>
       </c>
       <c r="J20">
-        <v>5.137917915608326</v>
+        <v>5.257305516826964</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.453234369390136</v>
+        <v>11.03325505401815</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.86882985228602</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>29.19246985671964</v>
+        <v>11.03048200432612</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.47571267045488</v>
+        <v>31.20261999748522</v>
       </c>
       <c r="C21">
-        <v>18.43090391017127</v>
+        <v>14.91208229967227</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.925235333869587</v>
+        <v>10.28934362904918</v>
       </c>
       <c r="F21">
-        <v>41.67276622990542</v>
+        <v>24.87669183411697</v>
       </c>
       <c r="G21">
-        <v>2.042392112117545</v>
+        <v>17.57517536465762</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.927853165831505</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>9.515578984573256</v>
       </c>
       <c r="J21">
-        <v>5.00672078249434</v>
+        <v>5.338544309855961</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.750873640792669</v>
+        <v>11.49939046313622</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.4771317307896</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>30.44205829495924</v>
+        <v>11.01591734030085</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.79887491097585</v>
+        <v>32.31465092061034</v>
       </c>
       <c r="C22">
-        <v>19.14900485556778</v>
+        <v>15.25884830300786</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.953599515486721</v>
+        <v>10.35952905760821</v>
       </c>
       <c r="F22">
-        <v>42.84026094138398</v>
+        <v>25.35422515256619</v>
       </c>
       <c r="G22">
-        <v>2.033257250929383</v>
+        <v>17.96112050487486</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.870861920437742</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>9.23612237466239</v>
       </c>
       <c r="J22">
-        <v>4.92115096678735</v>
+        <v>5.391316726588621</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.944847237583991</v>
+        <v>11.79720548317226</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.22100244363107</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>31.27816147039569</v>
+        <v>11.02787232097896</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.09619933700959</v>
+        <v>31.72568558318591</v>
       </c>
       <c r="C23">
-        <v>18.76755407936212</v>
+        <v>15.07457556668049</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.938251359418586</v>
+        <v>10.32153083998701</v>
       </c>
       <c r="F23">
-        <v>42.21590877304307</v>
+        <v>25.09773504010273</v>
       </c>
       <c r="G23">
-        <v>2.038132813873271</v>
+        <v>17.75171410596281</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.900494551274676</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>9.384004117862741</v>
       </c>
       <c r="J23">
-        <v>4.966814652147155</v>
+        <v>5.363182939350692</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.841375882229933</v>
+        <v>11.63889924604836</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.35774617140291</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>30.83007992360861</v>
+        <v>11.01944385390941</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.35582082639529</v>
+        <v>29.39471995548553</v>
       </c>
       <c r="C24">
-        <v>17.28175479940823</v>
+        <v>14.35938365157454</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.884492648568891</v>
+        <v>10.1893464964013</v>
       </c>
       <c r="F24">
-        <v>39.87779695274457</v>
+        <v>24.16227450737632</v>
       </c>
       <c r="G24">
-        <v>2.056624058557761</v>
+        <v>17.03364620658631</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.029315056268402</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>9.970561322607516</v>
       </c>
       <c r="J24">
-        <v>5.14006728623253</v>
+        <v>5.255972824023207</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.448361847800388</v>
+        <v>11.02552536555221</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.87523635002261</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>29.17236240628293</v>
+        <v>11.03106386821599</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.26323275780794</v>
+        <v>26.66309568272628</v>
       </c>
       <c r="C25">
-        <v>15.58387399025267</v>
+        <v>13.55353759478915</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.834518172681564</v>
+        <v>10.07106530370867</v>
       </c>
       <c r="F25">
-        <v>37.41041920196144</v>
+        <v>23.23203227942644</v>
       </c>
       <c r="G25">
-        <v>2.076788725556759</v>
+        <v>16.41714595995408</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.19984368567455</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>10.65224925167949</v>
       </c>
       <c r="J25">
-        <v>5.328607801126672</v>
+        <v>5.139199698469597</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.022903010144596</v>
+        <v>10.3367344589645</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.43575642791119</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>27.46329401888379</v>
+        <v>11.12727907637085</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.46177326802931</v>
+        <v>16.95397778511553</v>
       </c>
       <c r="C2">
-        <v>12.93365328911648</v>
+        <v>12.41591857464694</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.00400084794458</v>
+        <v>16.83251845988741</v>
       </c>
       <c r="F2">
-        <v>22.61625995920781</v>
+        <v>33.78795527274045</v>
       </c>
       <c r="G2">
-        <v>16.09366755113461</v>
+        <v>23.86155347129156</v>
       </c>
       <c r="H2">
-        <v>7.349087911495395</v>
+        <v>13.16584197284808</v>
       </c>
       <c r="I2">
-        <v>11.19077300579938</v>
+        <v>20.71089771946079</v>
       </c>
       <c r="J2">
-        <v>5.052522084904916</v>
+        <v>7.089095426311948</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.809089426594035</v>
+        <v>13.27791223070825</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.2606156203268</v>
+        <v>19.3678682405579</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.84989385374831</v>
+        <v>16.23233744172688</v>
       </c>
       <c r="C3">
-        <v>12.4989315477523</v>
+        <v>12.2744208174767</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.970549571835102</v>
+        <v>16.87193062414744</v>
       </c>
       <c r="F3">
-        <v>22.24238624937054</v>
+        <v>33.87476005805679</v>
       </c>
       <c r="G3">
-        <v>15.95108562795051</v>
+        <v>24.01687568126194</v>
       </c>
       <c r="H3">
-        <v>7.463472525892316</v>
+        <v>13.22897922036622</v>
       </c>
       <c r="I3">
-        <v>11.57661716069191</v>
+        <v>20.86122561894723</v>
       </c>
       <c r="J3">
-        <v>4.993491469540452</v>
+        <v>7.077058354459258</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.440581734829664</v>
+        <v>13.22256874017467</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.38527072711096</v>
+        <v>19.48091336500062</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.80054373745354</v>
+        <v>15.77196195832255</v>
       </c>
       <c r="C4">
-        <v>12.2255766391383</v>
+        <v>12.18724561353893</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.955749581855519</v>
+        <v>16.89871724618124</v>
       </c>
       <c r="F4">
-        <v>22.03418949871228</v>
+        <v>33.93741293703062</v>
       </c>
       <c r="G4">
-        <v>15.89919349476392</v>
+        <v>24.12287635178147</v>
       </c>
       <c r="H4">
-        <v>7.539782197605131</v>
+        <v>13.27025370527841</v>
       </c>
       <c r="I4">
-        <v>11.82335229346223</v>
+        <v>20.95846025189482</v>
       </c>
       <c r="J4">
-        <v>4.957155635776062</v>
+        <v>7.069785763098004</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.209688289363786</v>
+        <v>13.18998107027397</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.47721911447929</v>
+        <v>19.55552147312349</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.3578665947739</v>
+        <v>15.58023193902234</v>
       </c>
       <c r="C5">
-        <v>12.11269655985859</v>
+        <v>12.15167670948512</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.951133658548629</v>
+        <v>16.91028366992447</v>
       </c>
       <c r="F5">
-        <v>21.95469093976799</v>
+        <v>33.96528975616403</v>
       </c>
       <c r="G5">
-        <v>15.88663685776963</v>
+        <v>24.16872572203554</v>
       </c>
       <c r="H5">
-        <v>7.572344859218057</v>
+        <v>13.28770415861398</v>
       </c>
       <c r="I5">
-        <v>11.92631202980887</v>
+        <v>20.99932651930513</v>
       </c>
       <c r="J5">
-        <v>4.942333731330484</v>
+        <v>7.066852661713694</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.114562907106393</v>
+        <v>13.17706022786256</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.51834760981725</v>
+        <v>19.58722902946585</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.28344928136722</v>
+        <v>15.5481534121687</v>
       </c>
       <c r="C6">
-        <v>12.09386729612003</v>
+        <v>12.14576871977986</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.950451812490627</v>
+        <v>16.91224356422918</v>
       </c>
       <c r="F6">
-        <v>21.94181170732909</v>
+        <v>33.97006011168806</v>
       </c>
       <c r="G6">
-        <v>15.88505873788197</v>
+        <v>24.17649862452846</v>
       </c>
       <c r="H6">
-        <v>7.577838671887083</v>
+        <v>13.29063989376014</v>
       </c>
       <c r="I6">
-        <v>11.94355270172186</v>
+        <v>21.00618742729424</v>
       </c>
       <c r="J6">
-        <v>4.939871910974826</v>
+        <v>7.066367490348995</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.098708982318854</v>
+        <v>13.17493664945361</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.52539179566585</v>
+        <v>19.59257272799871</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.79463468435952</v>
+        <v>15.76939259757715</v>
       </c>
       <c r="C7">
-        <v>12.22406013022972</v>
+        <v>12.18676605867744</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.955681637979465</v>
+        <v>16.89887060050421</v>
       </c>
       <c r="F7">
-        <v>22.03309577286532</v>
+        <v>33.93777940741028</v>
       </c>
       <c r="G7">
-        <v>15.89898990326002</v>
+        <v>24.12348397664709</v>
       </c>
       <c r="H7">
-        <v>7.540215492523725</v>
+        <v>13.27048649407893</v>
       </c>
       <c r="I7">
-        <v>11.82473114115233</v>
+        <v>20.95900635570298</v>
       </c>
       <c r="J7">
-        <v>4.956955791439242</v>
+        <v>7.06974608155906</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.208409402514066</v>
+        <v>13.18980535115677</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.47775925268953</v>
+        <v>19.55594381570582</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.91834022612278</v>
+        <v>16.70886842047007</v>
       </c>
       <c r="C8">
-        <v>12.78517175695588</v>
+        <v>12.36720925435288</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.991259336141924</v>
+        <v>16.84557079390611</v>
       </c>
       <c r="F8">
-        <v>22.48290390627064</v>
+        <v>33.81594006621059</v>
       </c>
       <c r="G8">
-        <v>16.03689542019961</v>
+        <v>23.91288973011612</v>
       </c>
       <c r="H8">
-        <v>7.387227400000734</v>
+        <v>13.18709123773657</v>
       </c>
       <c r="I8">
-        <v>11.32173447025134</v>
+        <v>20.76170819885991</v>
       </c>
       <c r="J8">
-        <v>5.032191991276261</v>
+        <v>7.084920996119864</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.683061916551267</v>
+        <v>13.25854579001166</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.30026586960621</v>
+        <v>19.40576560129402</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.61256412808206</v>
+        <v>18.40569364908223</v>
       </c>
       <c r="C9">
-        <v>13.82933887733144</v>
+        <v>12.71741655001105</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.10773618896285</v>
+        <v>16.76157738229819</v>
       </c>
       <c r="F9">
-        <v>23.53471683771782</v>
+        <v>33.65151939630942</v>
       </c>
       <c r="G9">
-        <v>16.60406781611202</v>
+        <v>23.58516915937983</v>
       </c>
       <c r="H9">
-        <v>7.138502776712083</v>
+        <v>13.04344743012244</v>
       </c>
       <c r="I9">
-        <v>10.41662470265316</v>
+        <v>20.41385395674999</v>
       </c>
       <c r="J9">
-        <v>5.178662347185587</v>
+        <v>7.115581800184427</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.57215487708649</v>
+        <v>13.40401412238187</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.08452763984116</v>
+        <v>19.15264153168335</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.0443478728973</v>
+        <v>19.55434066157878</v>
       </c>
       <c r="C10">
-        <v>14.5563318713674</v>
+        <v>12.97077847385733</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.22327408522482</v>
+        <v>16.71237674773034</v>
       </c>
       <c r="F10">
-        <v>24.41006047554859</v>
+        <v>33.57648349993975</v>
       </c>
       <c r="G10">
-        <v>17.21595862612574</v>
+        <v>23.39755918437957</v>
       </c>
       <c r="H10">
-        <v>6.99168954005735</v>
+        <v>12.95003253008576</v>
       </c>
       <c r="I10">
-        <v>9.807180084704715</v>
+        <v>20.18196016462431</v>
       </c>
       <c r="J10">
-        <v>5.28517339091473</v>
+        <v>7.138612187913547</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.19426074840227</v>
+        <v>13.51685425511291</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.02088140142419</v>
+        <v>18.99207646619586</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.090331107308</v>
+        <v>20.05409612426459</v>
       </c>
       <c r="C11">
-        <v>14.87734513975136</v>
+        <v>13.08483077572763</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.28262483179937</v>
+        <v>16.69270856388507</v>
       </c>
       <c r="F11">
-        <v>24.83007217166525</v>
+        <v>33.55234209929023</v>
       </c>
       <c r="G11">
-        <v>17.53843709799794</v>
+        <v>23.32400088039162</v>
       </c>
       <c r="H11">
-        <v>6.933849451698408</v>
+        <v>12.91016638890749</v>
       </c>
       <c r="I11">
-        <v>9.543842698789879</v>
+        <v>20.08157993009388</v>
       </c>
       <c r="J11">
-        <v>5.333298127621721</v>
+        <v>7.149188591331187</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.46957770553719</v>
+        <v>13.56936222508939</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.01563643367708</v>
+        <v>18.92458808012002</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.47783934740716</v>
+        <v>20.23996547262964</v>
       </c>
       <c r="C12">
-        <v>14.99744223976514</v>
+        <v>13.1278175680954</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.3060967592357</v>
+        <v>16.6856506959637</v>
       </c>
       <c r="F12">
-        <v>24.99220262353184</v>
+        <v>33.54464058737363</v>
       </c>
       <c r="G12">
-        <v>17.66695556288495</v>
+        <v>23.29786053471173</v>
       </c>
       <c r="H12">
-        <v>6.913338907190818</v>
+        <v>12.89544818809562</v>
       </c>
       <c r="I12">
-        <v>9.446328243445123</v>
+        <v>20.04430150990249</v>
       </c>
       <c r="J12">
-        <v>5.351467262204961</v>
+        <v>7.153207029694999</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.57266598470319</v>
+        <v>13.58940411801409</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.01731474853076</v>
+        <v>18.89983411331324</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.39476292532009</v>
+        <v>20.20008685003074</v>
       </c>
       <c r="C13">
-        <v>14.97164325770849</v>
+        <v>13.11856905005417</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.30099700429742</v>
+        <v>16.68715338952126</v>
       </c>
       <c r="F13">
-        <v>24.95714881920513</v>
+        <v>33.54623514365369</v>
       </c>
       <c r="G13">
-        <v>17.63899167256087</v>
+        <v>23.30341376258799</v>
       </c>
       <c r="H13">
-        <v>6.917692526582751</v>
+        <v>12.89860118961628</v>
       </c>
       <c r="I13">
-        <v>9.467227827062985</v>
+        <v>20.05229748705082</v>
       </c>
       <c r="J13">
-        <v>5.347556761213553</v>
+        <v>7.152341007312654</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.550516933335</v>
+        <v>13.58508087489825</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.01678629929651</v>
+        <v>18.90512957335341</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.12238318515305</v>
+        <v>20.06945592282675</v>
       </c>
       <c r="C14">
-        <v>14.8872552899939</v>
+        <v>13.08837154508527</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.28453578651098</v>
+        <v>16.69212009273626</v>
       </c>
       <c r="F14">
-        <v>24.84334932282772</v>
+        <v>33.55167960924445</v>
       </c>
       <c r="G14">
-        <v>17.54888192054189</v>
+        <v>23.32181582506338</v>
       </c>
       <c r="H14">
-        <v>6.932133498754535</v>
+        <v>12.90894793172427</v>
       </c>
       <c r="I14">
-        <v>9.535774568082889</v>
+        <v>20.07849832102259</v>
       </c>
       <c r="J14">
-        <v>5.334794050629892</v>
+        <v>7.149518928002112</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.47808257905842</v>
+        <v>13.57100797507487</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.01569962182078</v>
+        <v>18.92253545247585</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.95442742571833</v>
+        <v>19.98899812339438</v>
       </c>
       <c r="C15">
-        <v>14.83537275448544</v>
+        <v>13.06984749521965</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.2745832464785</v>
+        <v>16.69521313229407</v>
       </c>
       <c r="F15">
-        <v>24.77404338293638</v>
+        <v>33.55520215706602</v>
       </c>
       <c r="G15">
-        <v>17.49452175747328</v>
+        <v>23.33331148297393</v>
       </c>
       <c r="H15">
-        <v>6.941163603656508</v>
+        <v>12.91533487555639</v>
       </c>
       <c r="I15">
-        <v>9.578055608104247</v>
+        <v>20.09464256002462</v>
       </c>
       <c r="J15">
-        <v>5.326969185938757</v>
+        <v>7.147792037120541</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.43356060425589</v>
+        <v>13.56240820084082</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.01551872580458</v>
+        <v>18.93330166977722</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.97478489560683</v>
+        <v>19.52121309916786</v>
       </c>
       <c r="C16">
-        <v>14.53515158011165</v>
+        <v>12.96329815042865</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.21953382471499</v>
+        <v>16.71371670010413</v>
       </c>
       <c r="F16">
-        <v>24.38304601443352</v>
+        <v>33.57826258582216</v>
       </c>
       <c r="G16">
-        <v>17.19577796733529</v>
+        <v>23.40260526613645</v>
       </c>
       <c r="H16">
-        <v>6.995658400226322</v>
+        <v>12.95269079246317</v>
       </c>
       <c r="I16">
-        <v>9.82468616466312</v>
+        <v>20.18862294787662</v>
       </c>
       <c r="J16">
-        <v>5.282021080160386</v>
+        <v>7.137922920685252</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.17610786050856</v>
+        <v>13.51344548155619</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.02172314820034</v>
+        <v>18.99659906765149</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.3584314921689</v>
+        <v>19.2283316222604</v>
       </c>
       <c r="C17">
-        <v>14.34843879972266</v>
+        <v>12.89760427716916</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.1875173720744</v>
+        <v>16.72576293084605</v>
       </c>
       <c r="F17">
-        <v>24.14873074381797</v>
+        <v>33.59497148497073</v>
       </c>
       <c r="G17">
-        <v>17.02386823709804</v>
+        <v>23.44814778096929</v>
       </c>
       <c r="H17">
-        <v>7.031453171238843</v>
+        <v>12.97628088009699</v>
       </c>
       <c r="I17">
-        <v>9.979679531157016</v>
+        <v>20.24758454305335</v>
       </c>
       <c r="J17">
-        <v>5.254357475741184</v>
+        <v>7.131893409638572</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.01615251947587</v>
+        <v>13.48370206536731</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.03178427386763</v>
+        <v>19.03685505920897</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.99824552914183</v>
+        <v>19.05773574829873</v>
       </c>
       <c r="C18">
-        <v>14.2401369756301</v>
+        <v>12.85970734220143</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.16974052811018</v>
+        <v>16.73294701704264</v>
       </c>
       <c r="F18">
-        <v>24.01601575511513</v>
+        <v>33.60552242742173</v>
       </c>
       <c r="G18">
-        <v>16.92914391648448</v>
+        <v>23.47545088498382</v>
       </c>
       <c r="H18">
-        <v>7.052876579961584</v>
+        <v>12.99009669078391</v>
       </c>
       <c r="I18">
-        <v>10.07012127099032</v>
+        <v>20.28197869006274</v>
       </c>
       <c r="J18">
-        <v>5.238415690925855</v>
+        <v>7.128434843150772</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.92343041982778</v>
+        <v>13.46670583797718</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.03978751721608</v>
+        <v>19.06053172603239</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.87531552430765</v>
+        <v>18.99961109175785</v>
       </c>
       <c r="C19">
-        <v>14.20331389966559</v>
+        <v>12.84685783737751</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.16383055469103</v>
+        <v>16.73542329603194</v>
       </c>
       <c r="F19">
-        <v>23.97143564187304</v>
+        <v>33.60925619714376</v>
       </c>
       <c r="G19">
-        <v>16.89778264086107</v>
+        <v>23.48488497887469</v>
       </c>
       <c r="H19">
-        <v>7.060270534934427</v>
+        <v>12.9948169744278</v>
       </c>
       <c r="I19">
-        <v>10.10095991713689</v>
+        <v>20.29370661084402</v>
       </c>
       <c r="J19">
-        <v>5.233013088713796</v>
+        <v>7.127265483880607</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.89191476897622</v>
+        <v>13.46097066878678</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.04287010101947</v>
+        <v>19.06863785999202</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.42463021246532</v>
+        <v>19.2597314488406</v>
       </c>
       <c r="C20">
-        <v>14.36840936505628</v>
+        <v>12.90460926268364</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.19085937714828</v>
+        <v>16.72445415560068</v>
       </c>
       <c r="F20">
-        <v>24.17346150637035</v>
+        <v>33.59309543640154</v>
       </c>
       <c r="G20">
-        <v>17.04173785342587</v>
+        <v>23.44318485739596</v>
       </c>
       <c r="H20">
-        <v>7.027555576066464</v>
+        <v>12.97374406678329</v>
       </c>
       <c r="I20">
-        <v>9.963044983882734</v>
+        <v>20.24125820909374</v>
       </c>
       <c r="J20">
-        <v>5.257305516826964</v>
+        <v>7.132534290388917</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.03325505401815</v>
+        <v>13.48685685170122</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.03048200432612</v>
+        <v>19.03251563730025</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.20261999748522</v>
+        <v>20.10791778792143</v>
       </c>
       <c r="C21">
-        <v>14.91208229967227</v>
+        <v>13.09724700514357</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.28934362904918</v>
+        <v>16.69065066725898</v>
       </c>
       <c r="F21">
-        <v>24.87669183411697</v>
+        <v>33.55004132578331</v>
       </c>
       <c r="G21">
-        <v>17.57517536465762</v>
+        <v>23.3163640061344</v>
       </c>
       <c r="H21">
-        <v>6.927853165831505</v>
+        <v>12.90589857541454</v>
       </c>
       <c r="I21">
-        <v>9.515578984573256</v>
+        <v>20.07078260702396</v>
       </c>
       <c r="J21">
-        <v>5.338544309855961</v>
+        <v>7.150347485606591</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.49939046313622</v>
+        <v>13.57513731963657</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.01591734030085</v>
+        <v>18.91740111550793</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.31465092061034</v>
+        <v>20.64253508740581</v>
       </c>
       <c r="C22">
-        <v>15.25884830300786</v>
+        <v>13.22195452907884</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.35952905760821</v>
+        <v>16.6708315181179</v>
       </c>
       <c r="F22">
-        <v>25.35422515256619</v>
+        <v>33.53029913189468</v>
       </c>
       <c r="G22">
-        <v>17.96112050487486</v>
+        <v>23.24348181792658</v>
       </c>
       <c r="H22">
-        <v>6.870861920437742</v>
+        <v>12.86376243463377</v>
       </c>
       <c r="I22">
-        <v>9.23612237466239</v>
+        <v>19.96364117919402</v>
       </c>
       <c r="J22">
-        <v>5.391316726588621</v>
+        <v>7.162066993825114</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.79720548317226</v>
+        <v>13.63375098709316</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.02787232097896</v>
+        <v>18.84684606364884</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.72568558318591</v>
+        <v>20.35903415277404</v>
       </c>
       <c r="C23">
-        <v>15.07457556668049</v>
+        <v>13.15551434191435</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.32153083998701</v>
+        <v>16.68120141714084</v>
       </c>
       <c r="F23">
-        <v>25.09773504010273</v>
+        <v>33.54006678934262</v>
       </c>
       <c r="G23">
-        <v>17.75171410596281</v>
+        <v>23.28145884684164</v>
       </c>
       <c r="H23">
-        <v>6.900494551274676</v>
+        <v>12.88604946220719</v>
       </c>
       <c r="I23">
-        <v>9.384004117862741</v>
+        <v>20.02043390216455</v>
       </c>
       <c r="J23">
-        <v>5.363182939350692</v>
+        <v>7.155805296954178</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.63889924604836</v>
+        <v>13.60238749654713</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.01944385390941</v>
+        <v>18.88407321550937</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.39471995548553</v>
+        <v>19.24554247667439</v>
       </c>
       <c r="C24">
-        <v>14.35938365157454</v>
+        <v>12.90144270722455</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.1893464964013</v>
+        <v>16.72504504753068</v>
       </c>
       <c r="F24">
-        <v>24.16227450737632</v>
+        <v>33.59394065533188</v>
       </c>
       <c r="G24">
-        <v>17.03364620658631</v>
+        <v>23.44542510759013</v>
       </c>
       <c r="H24">
-        <v>7.029315056268402</v>
+        <v>12.97489017028116</v>
       </c>
       <c r="I24">
-        <v>9.970561322607516</v>
+        <v>20.2441167984847</v>
       </c>
       <c r="J24">
-        <v>5.255972824023207</v>
+        <v>7.132244523580286</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.02552536555221</v>
+        <v>13.48543024909271</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.03106386821599</v>
+        <v>19.03447583008137</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.66309568272628</v>
+        <v>17.96328768562276</v>
       </c>
       <c r="C25">
-        <v>13.55353759478915</v>
+        <v>12.62324490230288</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.07106530370867</v>
+        <v>16.78210253333732</v>
       </c>
       <c r="F25">
-        <v>23.23203227942644</v>
+        <v>33.6879846277152</v>
       </c>
       <c r="G25">
-        <v>16.41714595995408</v>
+        <v>23.66457430779393</v>
       </c>
       <c r="H25">
-        <v>7.19984368567455</v>
+        <v>13.08017800495186</v>
       </c>
       <c r="I25">
-        <v>10.65224925167949</v>
+        <v>20.50379114089024</v>
       </c>
       <c r="J25">
-        <v>5.139199698469597</v>
+        <v>7.107195321765081</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.3367344589645</v>
+        <v>13.36357333519193</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.12727907637085</v>
+        <v>19.21667028247492</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.95397778511553</v>
+        <v>24.46177326802927</v>
       </c>
       <c r="C2">
-        <v>12.41591857464694</v>
+        <v>12.93365328911645</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.83251845988741</v>
+        <v>10.00400084794459</v>
       </c>
       <c r="F2">
-        <v>33.78795527274045</v>
+        <v>22.61625995920787</v>
       </c>
       <c r="G2">
-        <v>23.86155347129156</v>
+        <v>16.09366755113474</v>
       </c>
       <c r="H2">
-        <v>13.16584197284808</v>
+        <v>7.3490879114954</v>
       </c>
       <c r="I2">
-        <v>20.71089771946079</v>
+        <v>11.19077300579945</v>
       </c>
       <c r="J2">
-        <v>7.089095426311948</v>
+        <v>5.05252208490491</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.27791223070825</v>
+        <v>9.809089426594014</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.3678682405579</v>
+        <v>11.26061562032687</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.23233744172688</v>
+        <v>22.84989385374829</v>
       </c>
       <c r="C3">
-        <v>12.2744208174767</v>
+        <v>12.4989315477522</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.87193062414744</v>
+        <v>9.970549571835106</v>
       </c>
       <c r="F3">
-        <v>33.87476005805679</v>
+        <v>22.24238624937057</v>
       </c>
       <c r="G3">
-        <v>24.01687568126194</v>
+        <v>15.9510856279506</v>
       </c>
       <c r="H3">
-        <v>13.22897922036622</v>
+        <v>7.463472525892249</v>
       </c>
       <c r="I3">
-        <v>20.86122561894723</v>
+        <v>11.57661716069194</v>
       </c>
       <c r="J3">
-        <v>7.077058354459258</v>
+        <v>4.993491469540452</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.22256874017467</v>
+        <v>9.440581734829633</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.48091336500062</v>
+        <v>11.38527072711101</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.77196195832255</v>
+        <v>21.80054373745353</v>
       </c>
       <c r="C4">
-        <v>12.18724561353893</v>
+        <v>12.22557663913839</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.89871724618124</v>
+        <v>9.955749581855681</v>
       </c>
       <c r="F4">
-        <v>33.93741293703062</v>
+        <v>22.03418949871246</v>
       </c>
       <c r="G4">
-        <v>24.12287635178147</v>
+        <v>15.89919349476397</v>
       </c>
       <c r="H4">
-        <v>13.27025370527841</v>
+        <v>7.539782197605131</v>
       </c>
       <c r="I4">
-        <v>20.95846025189482</v>
+        <v>11.82335229346227</v>
       </c>
       <c r="J4">
-        <v>7.069785763098004</v>
+        <v>4.95715563577609</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.18998107027397</v>
+        <v>9.209688289363873</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.55552147312349</v>
+        <v>11.4772191144793</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.58023193902234</v>
+        <v>21.35786659477387</v>
       </c>
       <c r="C5">
-        <v>12.15167670948512</v>
+        <v>12.11269655985867</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.91028366992447</v>
+        <v>9.951133658548795</v>
       </c>
       <c r="F5">
-        <v>33.96528975616403</v>
+        <v>21.95469093976813</v>
       </c>
       <c r="G5">
-        <v>24.16872572203554</v>
+        <v>15.88663685776964</v>
       </c>
       <c r="H5">
-        <v>13.28770415861398</v>
+        <v>7.572344859218061</v>
       </c>
       <c r="I5">
-        <v>20.99932651930513</v>
+        <v>11.92631202980894</v>
       </c>
       <c r="J5">
-        <v>7.066852661713694</v>
+        <v>4.942333731330419</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.17706022786256</v>
+        <v>9.114562907106434</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.58722902946585</v>
+        <v>11.51834760981726</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.5481534121687</v>
+        <v>21.28344928136722</v>
       </c>
       <c r="C6">
-        <v>12.14576871977986</v>
+        <v>12.09386729611991</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.91224356422918</v>
+        <v>9.950451812490508</v>
       </c>
       <c r="F6">
-        <v>33.97006011168806</v>
+        <v>21.94181170732915</v>
       </c>
       <c r="G6">
-        <v>24.17649862452846</v>
+        <v>15.8850587378821</v>
       </c>
       <c r="H6">
-        <v>13.29063989376014</v>
+        <v>7.577838671887087</v>
       </c>
       <c r="I6">
-        <v>21.00618742729424</v>
+        <v>11.94355270172187</v>
       </c>
       <c r="J6">
-        <v>7.066367490348995</v>
+        <v>4.939871910974699</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.17493664945361</v>
+        <v>9.098708982318787</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.59257272799871</v>
+        <v>11.52539179566588</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.76939259757715</v>
+        <v>21.79463468435942</v>
       </c>
       <c r="C7">
-        <v>12.18676605867744</v>
+        <v>12.22406013022999</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.89887060050421</v>
+        <v>9.955681637979588</v>
       </c>
       <c r="F7">
-        <v>33.93777940741028</v>
+        <v>22.03309577286549</v>
       </c>
       <c r="G7">
-        <v>24.12348397664709</v>
+        <v>15.89898990326009</v>
       </c>
       <c r="H7">
-        <v>13.27048649407893</v>
+        <v>7.540215492523718</v>
       </c>
       <c r="I7">
-        <v>20.95900635570298</v>
+        <v>11.82473114115244</v>
       </c>
       <c r="J7">
-        <v>7.06974608155906</v>
+        <v>4.956955791439177</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.18980535115677</v>
+        <v>9.208409402514068</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.55594381570582</v>
+        <v>11.47775925268955</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.70886842047007</v>
+        <v>23.91834022612274</v>
       </c>
       <c r="C8">
-        <v>12.36720925435288</v>
+        <v>12.78517175695586</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.84557079390611</v>
+        <v>9.991259336141969</v>
       </c>
       <c r="F8">
-        <v>33.81594006621059</v>
+        <v>22.48290390627079</v>
       </c>
       <c r="G8">
-        <v>23.91288973011612</v>
+        <v>16.03689542019993</v>
       </c>
       <c r="H8">
-        <v>13.18709123773657</v>
+        <v>7.38722740000085</v>
       </c>
       <c r="I8">
-        <v>20.76170819885991</v>
+        <v>11.3217344702516</v>
       </c>
       <c r="J8">
-        <v>7.084920996119864</v>
+        <v>5.032191991276383</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.25854579001166</v>
+        <v>9.683061916551296</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.40576560129402</v>
+        <v>11.30026586960645</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.40569364908223</v>
+        <v>27.61256412808207</v>
       </c>
       <c r="C9">
-        <v>12.71741655001105</v>
+        <v>13.8293388773316</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.76157738229819</v>
+        <v>10.10773618896292</v>
       </c>
       <c r="F9">
-        <v>33.65151939630942</v>
+        <v>23.53471683771789</v>
       </c>
       <c r="G9">
-        <v>23.58516915937983</v>
+        <v>16.60406781611205</v>
       </c>
       <c r="H9">
-        <v>13.04344743012244</v>
+        <v>7.138502776712262</v>
       </c>
       <c r="I9">
-        <v>20.41385395674999</v>
+        <v>10.41662470265329</v>
       </c>
       <c r="J9">
-        <v>7.115581800184427</v>
+        <v>5.178662347185582</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.40401412238187</v>
+        <v>10.57215487708648</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.15264153168335</v>
+        <v>11.08452763984124</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.55434066157878</v>
+        <v>30.04434787289727</v>
       </c>
       <c r="C10">
-        <v>12.97077847385733</v>
+        <v>14.55633187136734</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.71237674773034</v>
+        <v>10.22327408522488</v>
       </c>
       <c r="F10">
-        <v>33.57648349993975</v>
+        <v>24.41006047554861</v>
       </c>
       <c r="G10">
-        <v>23.39755918437957</v>
+        <v>17.21595862612569</v>
       </c>
       <c r="H10">
-        <v>12.95003253008576</v>
+        <v>6.991689540057355</v>
       </c>
       <c r="I10">
-        <v>20.18196016462431</v>
+        <v>9.807180084704688</v>
       </c>
       <c r="J10">
-        <v>7.138612187913547</v>
+        <v>5.285173390914728</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.51685425511291</v>
+        <v>11.19426074840229</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.99207646619586</v>
+        <v>11.02088140142417</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.05409612426459</v>
+        <v>31.09033110730803</v>
       </c>
       <c r="C11">
-        <v>13.08483077572763</v>
+        <v>14.87734513975139</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.69270856388507</v>
+        <v>10.28262483179939</v>
       </c>
       <c r="F11">
-        <v>33.55234209929023</v>
+        <v>24.83007217166532</v>
       </c>
       <c r="G11">
-        <v>23.32400088039162</v>
+        <v>17.5384370979979</v>
       </c>
       <c r="H11">
-        <v>12.91016638890749</v>
+        <v>6.933849451698366</v>
       </c>
       <c r="I11">
-        <v>20.08157993009388</v>
+        <v>9.543842698789803</v>
       </c>
       <c r="J11">
-        <v>7.149188591331187</v>
+        <v>5.333298127621658</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.56936222508939</v>
+        <v>11.46957770553719</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.92458808012002</v>
+        <v>11.01563643367704</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.23996547262964</v>
+        <v>31.47783934740716</v>
       </c>
       <c r="C12">
-        <v>13.1278175680954</v>
+        <v>14.9974422397651</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.6856506959637</v>
+        <v>10.30609675923565</v>
       </c>
       <c r="F12">
-        <v>33.54464058737363</v>
+        <v>24.99220262353191</v>
       </c>
       <c r="G12">
-        <v>23.29786053471173</v>
+        <v>17.66695556288505</v>
       </c>
       <c r="H12">
-        <v>12.89544818809562</v>
+        <v>6.913338907190846</v>
       </c>
       <c r="I12">
-        <v>20.04430150990249</v>
+        <v>9.446328243445212</v>
       </c>
       <c r="J12">
-        <v>7.153207029694999</v>
+        <v>5.351467262204924</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.58940411801409</v>
+        <v>11.57266598470313</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.89983411331324</v>
+        <v>11.01731474853085</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.20008685003074</v>
+        <v>31.3947629253201</v>
       </c>
       <c r="C13">
-        <v>13.11856905005417</v>
+        <v>14.97164325770846</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.68715338952126</v>
+        <v>10.30099700429742</v>
       </c>
       <c r="F13">
-        <v>33.54623514365369</v>
+        <v>24.95714881920523</v>
       </c>
       <c r="G13">
-        <v>23.30341376258799</v>
+        <v>17.63899167256097</v>
       </c>
       <c r="H13">
-        <v>12.89860118961628</v>
+        <v>6.917692526582768</v>
       </c>
       <c r="I13">
-        <v>20.05229748705082</v>
+        <v>9.467227827063041</v>
       </c>
       <c r="J13">
-        <v>7.152341007312654</v>
+        <v>5.347556761213515</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.58508087489825</v>
+        <v>11.550516933335</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.90512957335341</v>
+        <v>11.01678629929655</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.06945592282675</v>
+        <v>31.12238318515301</v>
       </c>
       <c r="C14">
-        <v>13.08837154508527</v>
+        <v>14.88725528999404</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.69212009273626</v>
+        <v>10.28453578651098</v>
       </c>
       <c r="F14">
-        <v>33.55167960924445</v>
+        <v>24.84334932282779</v>
       </c>
       <c r="G14">
-        <v>23.32181582506338</v>
+        <v>17.54888192054202</v>
       </c>
       <c r="H14">
-        <v>12.90894793172427</v>
+        <v>6.932133498754689</v>
       </c>
       <c r="I14">
-        <v>20.07849832102259</v>
+        <v>9.535774568083044</v>
       </c>
       <c r="J14">
-        <v>7.149518928002112</v>
+        <v>5.334794050629892</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.57100797507487</v>
+        <v>11.47808257905839</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.92253545247585</v>
+        <v>11.01569962182084</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.98899812339438</v>
+        <v>30.95442742571835</v>
       </c>
       <c r="C15">
-        <v>13.06984749521965</v>
+        <v>14.83537275448545</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.69521313229407</v>
+        <v>10.2745832464785</v>
       </c>
       <c r="F15">
-        <v>33.55520215706602</v>
+        <v>24.77404338293635</v>
       </c>
       <c r="G15">
-        <v>23.33331148297393</v>
+        <v>17.49452175747342</v>
       </c>
       <c r="H15">
-        <v>12.91533487555639</v>
+        <v>6.941163603656508</v>
       </c>
       <c r="I15">
-        <v>20.09464256002462</v>
+        <v>9.57805560810432</v>
       </c>
       <c r="J15">
-        <v>7.147792037120541</v>
+        <v>5.326969185938933</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.56240820084082</v>
+        <v>11.43356060425588</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.93330166977722</v>
+        <v>11.01551872580463</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.52121309916786</v>
+        <v>29.97478489560681</v>
       </c>
       <c r="C16">
-        <v>12.96329815042865</v>
+        <v>14.53515158011142</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.71371670010413</v>
+        <v>10.21953382471495</v>
       </c>
       <c r="F16">
-        <v>33.57826258582216</v>
+        <v>24.38304601443358</v>
       </c>
       <c r="G16">
-        <v>23.40260526613645</v>
+        <v>17.19577796733541</v>
       </c>
       <c r="H16">
-        <v>12.95269079246317</v>
+        <v>6.995658400226325</v>
       </c>
       <c r="I16">
-        <v>20.18862294787662</v>
+        <v>9.82468616466314</v>
       </c>
       <c r="J16">
-        <v>7.137922920685252</v>
+        <v>5.282021080160323</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.51344548155619</v>
+        <v>11.17610786050858</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.99659906765149</v>
+        <v>11.02172314820044</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.2283316222604</v>
+        <v>29.35843149216888</v>
       </c>
       <c r="C17">
-        <v>12.89760427716916</v>
+        <v>14.34843879972275</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.72576293084605</v>
+        <v>10.1875173720744</v>
       </c>
       <c r="F17">
-        <v>33.59497148497073</v>
+        <v>24.14873074381801</v>
       </c>
       <c r="G17">
-        <v>23.44814778096929</v>
+        <v>17.02386823709817</v>
       </c>
       <c r="H17">
-        <v>12.97628088009699</v>
+        <v>7.031453171238851</v>
       </c>
       <c r="I17">
-        <v>20.24758454305335</v>
+        <v>9.979679531157158</v>
       </c>
       <c r="J17">
-        <v>7.131893409638572</v>
+        <v>5.254357475741239</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.48370206536731</v>
+        <v>11.01615251947585</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.03685505920897</v>
+        <v>11.03178427386768</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.05773574829873</v>
+        <v>28.99824552914179</v>
       </c>
       <c r="C18">
-        <v>12.85970734220143</v>
+        <v>14.24013697562993</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.73294701704264</v>
+        <v>10.16974052811022</v>
       </c>
       <c r="F18">
-        <v>33.60552242742173</v>
+        <v>24.01601575511522</v>
       </c>
       <c r="G18">
-        <v>23.47545088498382</v>
+        <v>16.92914391648462</v>
       </c>
       <c r="H18">
-        <v>12.99009669078391</v>
+        <v>7.052876579961648</v>
       </c>
       <c r="I18">
-        <v>20.28197869006274</v>
+        <v>10.07012127099044</v>
       </c>
       <c r="J18">
-        <v>7.128434843150772</v>
+        <v>5.238415690925911</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.46670583797718</v>
+        <v>10.92343041982781</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.06053172603239</v>
+        <v>11.03978751721623</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.99961109175785</v>
+        <v>28.87531552430758</v>
       </c>
       <c r="C19">
-        <v>12.84685783737751</v>
+        <v>14.20331389966564</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.73542329603194</v>
+        <v>10.16383055469113</v>
       </c>
       <c r="F19">
-        <v>33.60925619714376</v>
+        <v>23.97143564187322</v>
       </c>
       <c r="G19">
-        <v>23.48488497887469</v>
+        <v>16.89778264086125</v>
       </c>
       <c r="H19">
-        <v>12.9948169744278</v>
+        <v>7.060270534934493</v>
       </c>
       <c r="I19">
-        <v>20.29370661084402</v>
+        <v>10.1009599171371</v>
       </c>
       <c r="J19">
-        <v>7.127265483880607</v>
+        <v>5.233013088713749</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.46097066878678</v>
+        <v>10.89191476897622</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.06863785999202</v>
+        <v>11.04287010101958</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.2597314488406</v>
+        <v>29.42463021246533</v>
       </c>
       <c r="C20">
-        <v>12.90460926268364</v>
+        <v>14.36840936505613</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.72445415560068</v>
+        <v>10.19085937714827</v>
       </c>
       <c r="F20">
-        <v>33.59309543640154</v>
+        <v>24.1734615063704</v>
       </c>
       <c r="G20">
-        <v>23.44318485739596</v>
+        <v>17.04173785342597</v>
       </c>
       <c r="H20">
-        <v>12.97374406678329</v>
+        <v>7.027555576066515</v>
       </c>
       <c r="I20">
-        <v>20.24125820909374</v>
+        <v>9.963044983882794</v>
       </c>
       <c r="J20">
-        <v>7.132534290388917</v>
+        <v>5.257305516826962</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.48685685170122</v>
+        <v>11.03325505401815</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.03251563730025</v>
+        <v>11.03048200432622</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.10791778792143</v>
+        <v>31.20261999748521</v>
       </c>
       <c r="C21">
-        <v>13.09724700514357</v>
+        <v>14.91208229967225</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.69065066725898</v>
+        <v>10.28934362904938</v>
       </c>
       <c r="F21">
-        <v>33.55004132578331</v>
+        <v>24.87669183411711</v>
       </c>
       <c r="G21">
-        <v>23.3163640061344</v>
+        <v>17.57517536465763</v>
       </c>
       <c r="H21">
-        <v>12.90589857541454</v>
+        <v>6.927853165831515</v>
       </c>
       <c r="I21">
-        <v>20.07078260702396</v>
+        <v>9.515578984573327</v>
       </c>
       <c r="J21">
-        <v>7.150347485606591</v>
+        <v>5.338544309855961</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.57513731963657</v>
+        <v>11.49939046313627</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.91740111550793</v>
+        <v>11.01591734030086</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.64253508740581</v>
+        <v>32.3146509206104</v>
       </c>
       <c r="C22">
-        <v>13.22195452907884</v>
+        <v>15.25884830300786</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.6708315181179</v>
+        <v>10.35952905760812</v>
       </c>
       <c r="F22">
-        <v>33.53029913189468</v>
+        <v>25.35422515256617</v>
       </c>
       <c r="G22">
-        <v>23.24348181792658</v>
+        <v>17.96112050487491</v>
       </c>
       <c r="H22">
-        <v>12.86376243463377</v>
+        <v>6.870861920437702</v>
       </c>
       <c r="I22">
-        <v>19.96364117919402</v>
+        <v>9.236122374662322</v>
       </c>
       <c r="J22">
-        <v>7.162066993825114</v>
+        <v>5.391316726588615</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.63375098709316</v>
+        <v>11.79720548317221</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.84684606364884</v>
+        <v>11.02787232097893</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.35903415277404</v>
+        <v>31.72568558318591</v>
       </c>
       <c r="C23">
-        <v>13.15551434191435</v>
+        <v>15.07457556668062</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.68120141714084</v>
+        <v>10.32153083998706</v>
       </c>
       <c r="F23">
-        <v>33.54006678934262</v>
+        <v>25.09773504010272</v>
       </c>
       <c r="G23">
-        <v>23.28145884684164</v>
+        <v>17.7517141059628</v>
       </c>
       <c r="H23">
-        <v>12.88604946220719</v>
+        <v>6.900494551274634</v>
       </c>
       <c r="I23">
-        <v>20.02043390216455</v>
+        <v>9.384004117862725</v>
       </c>
       <c r="J23">
-        <v>7.155805296954178</v>
+        <v>5.363182939350657</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.60238749654713</v>
+        <v>11.63889924604833</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.88407321550937</v>
+        <v>11.01944385390938</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.24554247667439</v>
+        <v>29.39471995548555</v>
       </c>
       <c r="C24">
-        <v>12.90144270722455</v>
+        <v>14.35938365157437</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.72504504753068</v>
+        <v>10.18934649640134</v>
       </c>
       <c r="F24">
-        <v>33.59394065533188</v>
+        <v>24.16227450737637</v>
       </c>
       <c r="G24">
-        <v>23.44542510759013</v>
+        <v>17.03364620658634</v>
       </c>
       <c r="H24">
-        <v>12.97489017028116</v>
+        <v>7.029315056268458</v>
       </c>
       <c r="I24">
-        <v>20.2441167984847</v>
+        <v>9.970561322607496</v>
       </c>
       <c r="J24">
-        <v>7.132244523580286</v>
+        <v>5.255972824023237</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.48543024909271</v>
+        <v>11.02552536555226</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.03447583008137</v>
+        <v>11.03106386821601</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.96328768562276</v>
+        <v>26.66309568272632</v>
       </c>
       <c r="C25">
-        <v>12.62324490230288</v>
+        <v>13.55353759478916</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.78210253333732</v>
+        <v>10.07106530370858</v>
       </c>
       <c r="F25">
-        <v>33.6879846277152</v>
+        <v>23.23203227942636</v>
       </c>
       <c r="G25">
-        <v>23.66457430779393</v>
+        <v>16.41714595995402</v>
       </c>
       <c r="H25">
-        <v>13.08017800495186</v>
+        <v>7.199843685674489</v>
       </c>
       <c r="I25">
-        <v>20.50379114089024</v>
+        <v>10.6522492516794</v>
       </c>
       <c r="J25">
-        <v>7.107195321765081</v>
+        <v>5.139199698469595</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.36357333519193</v>
+        <v>10.33673445896446</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.21667028247492</v>
+        <v>11.12727907637077</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.46177326802927</v>
+        <v>19.77105681932273</v>
       </c>
       <c r="C2">
-        <v>12.93365328911645</v>
+        <v>11.97124701750158</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.00400084794459</v>
+        <v>11.33866545358898</v>
       </c>
       <c r="F2">
-        <v>22.61625995920787</v>
+        <v>25.73940477390696</v>
       </c>
       <c r="G2">
-        <v>16.09366755113474</v>
+        <v>20.65461467578448</v>
       </c>
       <c r="H2">
-        <v>7.3490879114954</v>
+        <v>1.772976387430123</v>
       </c>
       <c r="I2">
-        <v>11.19077300579945</v>
+        <v>2.620802524715776</v>
       </c>
       <c r="J2">
-        <v>5.05252208490491</v>
+        <v>8.319975286739499</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.58749279847212</v>
       </c>
       <c r="L2">
-        <v>9.809089426594014</v>
+        <v>5.294188041485952</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9.608160149696227</v>
       </c>
       <c r="O2">
-        <v>11.26061562032687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.50121253510214</v>
+      </c>
+      <c r="Q2">
+        <v>13.44096490860426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.84989385374829</v>
+        <v>18.46407975259035</v>
       </c>
       <c r="C3">
-        <v>12.4989315477522</v>
+        <v>11.63913567759567</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.970549571835106</v>
+        <v>11.14270452450768</v>
       </c>
       <c r="F3">
-        <v>22.24238624937057</v>
+        <v>25.06443568980175</v>
       </c>
       <c r="G3">
-        <v>15.9510856279506</v>
+        <v>20.07931784715798</v>
       </c>
       <c r="H3">
-        <v>7.463472525892249</v>
+        <v>1.9720593434436</v>
       </c>
       <c r="I3">
-        <v>11.57661716069194</v>
+        <v>2.487330736179062</v>
       </c>
       <c r="J3">
-        <v>4.993491469540452</v>
+        <v>8.312587056854984</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.65625891690953</v>
       </c>
       <c r="L3">
-        <v>9.440581734829633</v>
+        <v>5.203409371920271</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.257346887546362</v>
       </c>
       <c r="O3">
-        <v>11.38527072711101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.52406577774824</v>
+      </c>
+      <c r="Q3">
+        <v>13.31203930007772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.80054373745353</v>
+        <v>17.61158982772762</v>
       </c>
       <c r="C4">
-        <v>12.22557663913839</v>
+        <v>11.43058686428827</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.955749581855681</v>
+        <v>11.02047218422337</v>
       </c>
       <c r="F4">
-        <v>22.03418949871246</v>
+        <v>24.64870018652265</v>
       </c>
       <c r="G4">
-        <v>15.89919349476397</v>
+        <v>19.72826737111552</v>
       </c>
       <c r="H4">
-        <v>7.539782197605131</v>
+        <v>2.098995285808357</v>
       </c>
       <c r="I4">
-        <v>11.82335229346227</v>
+        <v>2.543477654579206</v>
       </c>
       <c r="J4">
-        <v>4.95715563577609</v>
+        <v>8.310872093879048</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.7028397442327</v>
       </c>
       <c r="L4">
-        <v>9.209688289363873</v>
+        <v>5.146005629301129</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.03612591192973</v>
       </c>
       <c r="O4">
-        <v>11.4772191144793</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.54085623350938</v>
+      </c>
+      <c r="Q4">
+        <v>13.23795399087664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.35786659477387</v>
+        <v>17.2543142149199</v>
       </c>
       <c r="C5">
-        <v>12.11269655985867</v>
+        <v>11.3489047916653</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.951133658548795</v>
+        <v>10.96930656587282</v>
       </c>
       <c r="F5">
-        <v>21.95469093976813</v>
+        <v>24.47348240269774</v>
       </c>
       <c r="G5">
-        <v>15.88663685776964</v>
+        <v>19.57566150868731</v>
       </c>
       <c r="H5">
-        <v>7.572344859218061</v>
+        <v>2.15217049881293</v>
       </c>
       <c r="I5">
-        <v>11.92631202980894</v>
+        <v>2.583669616528391</v>
       </c>
       <c r="J5">
-        <v>4.942333731330419</v>
+        <v>8.309293863188753</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.71908269256761</v>
       </c>
       <c r="L5">
-        <v>9.114562907106434</v>
+        <v>5.122603774043304</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.946194474360793</v>
       </c>
       <c r="O5">
-        <v>11.51834760981726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.54937400478996</v>
+      </c>
+      <c r="Q5">
+        <v>13.20493761144019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.28344928136722</v>
+        <v>17.18857455006857</v>
       </c>
       <c r="C6">
-        <v>12.09386729611991</v>
+        <v>11.34068554223307</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.950451812490508</v>
+        <v>10.95967452470554</v>
       </c>
       <c r="F6">
-        <v>21.94181170732915</v>
+        <v>24.43742072114229</v>
       </c>
       <c r="G6">
-        <v>15.8850587378821</v>
+        <v>19.53779287829249</v>
       </c>
       <c r="H6">
-        <v>7.577838671887087</v>
+        <v>2.161381084931005</v>
       </c>
       <c r="I6">
-        <v>11.94355270172187</v>
+        <v>2.594438878038531</v>
       </c>
       <c r="J6">
-        <v>4.939871910974699</v>
+        <v>8.307148919945929</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.71719697803676</v>
       </c>
       <c r="L6">
-        <v>9.098708982318787</v>
+        <v>5.119188956574797</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.933113575575129</v>
       </c>
       <c r="O6">
-        <v>11.52539179566588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.55205367557976</v>
+      </c>
+      <c r="Q6">
+        <v>13.19452282226516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.79463468435942</v>
+        <v>17.5917241964644</v>
       </c>
       <c r="C7">
-        <v>12.22406013022999</v>
+        <v>11.44418463447422</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.955681637979588</v>
+        <v>11.01678192312633</v>
       </c>
       <c r="F7">
-        <v>22.03309577286549</v>
+        <v>24.62748783757279</v>
       </c>
       <c r="G7">
-        <v>15.89898990326009</v>
+        <v>19.69216521160329</v>
       </c>
       <c r="H7">
-        <v>7.540215492523718</v>
+        <v>2.100533646105156</v>
       </c>
       <c r="I7">
-        <v>11.82473114115244</v>
+        <v>2.554696937663688</v>
       </c>
       <c r="J7">
-        <v>4.956955791439177</v>
+        <v>8.305601302044787</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.69036576636308</v>
       </c>
       <c r="L7">
-        <v>9.208409402514068</v>
+        <v>5.147053640731328</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>9.040127128143347</v>
       </c>
       <c r="O7">
-        <v>11.47775925268955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.5443737458266</v>
+      </c>
+      <c r="Q7">
+        <v>13.22387189438475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.91834022612274</v>
+        <v>19.3128083416245</v>
       </c>
       <c r="C8">
-        <v>12.78517175695586</v>
+        <v>11.87680577813034</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.991259336141969</v>
+        <v>11.26767402275267</v>
       </c>
       <c r="F8">
-        <v>22.48290390627079</v>
+        <v>25.48297287158483</v>
       </c>
       <c r="G8">
-        <v>16.03689542019993</v>
+        <v>20.41238490266327</v>
       </c>
       <c r="H8">
-        <v>7.38722740000085</v>
+        <v>1.841677625981469</v>
       </c>
       <c r="I8">
-        <v>11.3217344702516</v>
+        <v>2.57853278925966</v>
       </c>
       <c r="J8">
-        <v>5.032191991276383</v>
+        <v>8.309934677459417</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.59350453481661</v>
       </c>
       <c r="L8">
-        <v>9.683061916551296</v>
+        <v>5.265066913746526</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9.495066561339902</v>
       </c>
       <c r="O8">
-        <v>11.30026586960645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.51327699340021</v>
+      </c>
+      <c r="Q8">
+        <v>13.37766695101749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.61256412808207</v>
+        <v>22.3057989943241</v>
       </c>
       <c r="C9">
-        <v>13.8293388773316</v>
+        <v>12.6606145786346</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.10773618896292</v>
+        <v>11.74823713619087</v>
       </c>
       <c r="F9">
-        <v>23.53471683771789</v>
+        <v>27.17330723247034</v>
       </c>
       <c r="G9">
-        <v>16.60406781611205</v>
+        <v>21.89252574863329</v>
       </c>
       <c r="H9">
-        <v>7.138502776712262</v>
+        <v>1.747156739894602</v>
       </c>
       <c r="I9">
-        <v>10.41662470265329</v>
+        <v>2.895557302958192</v>
       </c>
       <c r="J9">
-        <v>5.178662347185582</v>
+        <v>8.350835504057565</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.46242121140889</v>
       </c>
       <c r="L9">
-        <v>10.57215487708648</v>
+        <v>5.480577126481317</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>10.32823418764025</v>
       </c>
       <c r="O9">
-        <v>11.08452763984124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.46833262203968</v>
+      </c>
+      <c r="Q9">
+        <v>13.74372197700682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.04434787289727</v>
+        <v>24.2079951048535</v>
       </c>
       <c r="C10">
-        <v>14.55633187136734</v>
+        <v>13.25301440082236</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.22327408522488</v>
+        <v>11.97858824039522</v>
       </c>
       <c r="F10">
-        <v>24.41006047554861</v>
+        <v>28.20985450403984</v>
       </c>
       <c r="G10">
-        <v>17.21595862612569</v>
+        <v>22.83353451807765</v>
       </c>
       <c r="H10">
-        <v>6.991689540057355</v>
+        <v>2.057194000592106</v>
       </c>
       <c r="I10">
-        <v>9.807180084704688</v>
+        <v>3.114680052507226</v>
       </c>
       <c r="J10">
-        <v>5.285173390914728</v>
+        <v>8.371980979004276</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.33810954741997</v>
       </c>
       <c r="L10">
-        <v>11.19426074840229</v>
+        <v>5.648595832557189</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.80294949865597</v>
       </c>
       <c r="O10">
-        <v>11.02088140142417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.46872096418264</v>
+      </c>
+      <c r="Q10">
+        <v>13.9765643335217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.09033110730803</v>
+        <v>24.62545846583403</v>
       </c>
       <c r="C11">
-        <v>14.87734513975139</v>
+        <v>13.85833479515618</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.28262483179939</v>
+        <v>11.18039191458423</v>
       </c>
       <c r="F11">
-        <v>24.83007217166532</v>
+        <v>27.14785828852355</v>
       </c>
       <c r="G11">
-        <v>17.5384370979979</v>
+        <v>22.10937503667481</v>
       </c>
       <c r="H11">
-        <v>6.933849451698366</v>
+        <v>2.928575479954269</v>
       </c>
       <c r="I11">
-        <v>9.543842698789803</v>
+        <v>3.179601204845634</v>
       </c>
       <c r="J11">
-        <v>5.333298127621658</v>
+        <v>8.18988211633426</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.87055141385011</v>
       </c>
       <c r="L11">
-        <v>11.46957770553719</v>
+        <v>5.893130690195949</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>10.12562318901392</v>
       </c>
       <c r="O11">
-        <v>11.01563643367704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.63295723334528</v>
+      </c>
+      <c r="Q11">
+        <v>13.59279786554439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.47783934740716</v>
+        <v>24.60687905679158</v>
       </c>
       <c r="C12">
-        <v>14.9974422397651</v>
+        <v>14.23749033379473</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.30609675923565</v>
+        <v>10.53443243640009</v>
       </c>
       <c r="F12">
-        <v>24.99220262353191</v>
+        <v>26.040072492</v>
       </c>
       <c r="G12">
-        <v>17.66695556288505</v>
+        <v>21.32721367652518</v>
       </c>
       <c r="H12">
-        <v>6.913338907190846</v>
+        <v>4.183870462836973</v>
       </c>
       <c r="I12">
-        <v>9.446328243445212</v>
+        <v>3.186962626432048</v>
       </c>
       <c r="J12">
-        <v>5.351467262204924</v>
+        <v>8.035403153425548</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.52282794090649</v>
       </c>
       <c r="L12">
-        <v>11.57266598470313</v>
+        <v>6.083624828809801</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>9.450444304813059</v>
       </c>
       <c r="O12">
-        <v>11.01731474853085</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.77439713599694</v>
+      </c>
+      <c r="Q12">
+        <v>13.22978464421288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.3947629253201</v>
+        <v>24.2345101076306</v>
       </c>
       <c r="C13">
-        <v>14.97164325770846</v>
+        <v>14.49007599669763</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.30099700429742</v>
+        <v>9.973252865839315</v>
       </c>
       <c r="F13">
-        <v>24.95714881920523</v>
+        <v>24.7856534468133</v>
       </c>
       <c r="G13">
-        <v>17.63899167256097</v>
+        <v>20.38737390778885</v>
       </c>
       <c r="H13">
-        <v>6.917692526582768</v>
+        <v>5.505390150466334</v>
       </c>
       <c r="I13">
-        <v>9.467227827063041</v>
+        <v>3.154527929877443</v>
       </c>
       <c r="J13">
-        <v>5.347556761213515</v>
+        <v>7.884250850213678</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.22862520993891</v>
       </c>
       <c r="L13">
-        <v>11.550516933335</v>
+        <v>6.245004973358256</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>8.733283535290902</v>
       </c>
       <c r="O13">
-        <v>11.01678629929655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.90863919897711</v>
+      </c>
+      <c r="Q13">
+        <v>12.83670187805683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.12238318515301</v>
+        <v>23.80479274045591</v>
       </c>
       <c r="C14">
-        <v>14.88725528999404</v>
+        <v>14.61634790216435</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.28453578651098</v>
+        <v>9.640128320328706</v>
       </c>
       <c r="F14">
-        <v>24.84334932282779</v>
+        <v>23.83045711791002</v>
       </c>
       <c r="G14">
-        <v>17.54888192054202</v>
+        <v>19.6417718911783</v>
       </c>
       <c r="H14">
-        <v>6.932133498754689</v>
+        <v>6.453223059089808</v>
       </c>
       <c r="I14">
-        <v>9.535774568083044</v>
+        <v>3.114938157432473</v>
       </c>
       <c r="J14">
-        <v>5.334794050629892</v>
+        <v>7.778980965229132</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.04739846641843</v>
       </c>
       <c r="L14">
-        <v>11.47808257905839</v>
+        <v>6.347354242660005</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>8.213178726355434</v>
       </c>
       <c r="O14">
-        <v>11.01569962182084</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>13.00041672199964</v>
+      </c>
+      <c r="Q14">
+        <v>12.54402782344688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.95442742571835</v>
+        <v>23.61813036858585</v>
       </c>
       <c r="C15">
-        <v>14.83537275448545</v>
+        <v>14.62488183485992</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.2745832464785</v>
+        <v>9.567318785756948</v>
       </c>
       <c r="F15">
-        <v>24.77404338293635</v>
+        <v>23.56213200511545</v>
       </c>
       <c r="G15">
-        <v>17.49452175747342</v>
+        <v>19.41609598860412</v>
       </c>
       <c r="H15">
-        <v>6.941163603656508</v>
+        <v>6.671434990586881</v>
       </c>
       <c r="I15">
-        <v>9.57805560810432</v>
+        <v>3.097860705958345</v>
       </c>
       <c r="J15">
-        <v>5.326969185938933</v>
+        <v>7.752942707686099</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.01125938199498</v>
       </c>
       <c r="L15">
-        <v>11.43356060425588</v>
+        <v>6.364324164253161</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>8.078267734136945</v>
       </c>
       <c r="O15">
-        <v>11.01551872580463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>13.02154022945888</v>
+      </c>
+      <c r="Q15">
+        <v>12.46301821213971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.97478489560681</v>
+        <v>22.88134058123688</v>
       </c>
       <c r="C16">
-        <v>14.53515158011142</v>
+        <v>14.34200351732846</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.21953382471495</v>
+        <v>9.575575804904302</v>
       </c>
       <c r="F16">
-        <v>24.38304601443358</v>
+        <v>23.32124222624302</v>
       </c>
       <c r="G16">
-        <v>17.19577796733541</v>
+        <v>19.13847944268277</v>
       </c>
       <c r="H16">
-        <v>6.995658400226325</v>
+        <v>6.455731332861935</v>
       </c>
       <c r="I16">
-        <v>9.82468616466314</v>
+        <v>3.012947969139304</v>
       </c>
       <c r="J16">
-        <v>5.282021080160323</v>
+        <v>7.770052525739189</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.12084793459102</v>
       </c>
       <c r="L16">
-        <v>11.17610786050858</v>
+        <v>6.262760997876009</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.996789111127643</v>
       </c>
       <c r="O16">
-        <v>11.02172314820044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.98547713450441</v>
+      </c>
+      <c r="Q16">
+        <v>12.42611799833363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.35843149216888</v>
+        <v>22.54340352223556</v>
       </c>
       <c r="C17">
-        <v>14.34843879972275</v>
+        <v>14.05314300953664</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.1875173720744</v>
+        <v>9.747684858535033</v>
       </c>
       <c r="F17">
-        <v>24.14873074381801</v>
+        <v>23.65540329264688</v>
       </c>
       <c r="G17">
-        <v>17.02386823709817</v>
+        <v>19.33481833711011</v>
       </c>
       <c r="H17">
-        <v>7.031453171238851</v>
+        <v>5.706319255190324</v>
       </c>
       <c r="I17">
-        <v>9.979679531157158</v>
+        <v>2.968962783234834</v>
       </c>
       <c r="J17">
-        <v>5.254357475741239</v>
+        <v>7.83947853512981</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.29879858925274</v>
       </c>
       <c r="L17">
-        <v>11.01615251947585</v>
+        <v>6.127407886383522</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>8.215211873043483</v>
       </c>
       <c r="O17">
-        <v>11.03178427386768</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.91056746005782</v>
+      </c>
+      <c r="Q17">
+        <v>12.55573264380922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.99824552914179</v>
+        <v>22.5326989420111</v>
       </c>
       <c r="C18">
-        <v>14.24013697562993</v>
+        <v>13.71953929485642</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.16974052811022</v>
+        <v>10.13969160106037</v>
       </c>
       <c r="F18">
-        <v>24.01601575511522</v>
+        <v>24.53307385012666</v>
       </c>
       <c r="G18">
-        <v>16.92914391648462</v>
+        <v>19.97953202535587</v>
       </c>
       <c r="H18">
-        <v>7.052876579961648</v>
+        <v>4.427978358883656</v>
       </c>
       <c r="I18">
-        <v>10.07012127099044</v>
+        <v>2.953023641613472</v>
       </c>
       <c r="J18">
-        <v>5.238415690925911</v>
+        <v>7.964206929225648</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.56768362660768</v>
       </c>
       <c r="L18">
-        <v>10.92343041982781</v>
+        <v>5.954569670746031</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>8.724185033385671</v>
       </c>
       <c r="O18">
-        <v>11.03978751721623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.79291596689302</v>
+      </c>
+      <c r="Q18">
+        <v>12.84985646957038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.87531552430758</v>
+        <v>22.76375049844159</v>
       </c>
       <c r="C19">
-        <v>14.20331389966564</v>
+        <v>13.41241634368467</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.16383055469113</v>
+        <v>10.75152792703207</v>
       </c>
       <c r="F19">
-        <v>23.97143564187322</v>
+        <v>25.74656654596509</v>
       </c>
       <c r="G19">
-        <v>16.89778264086125</v>
+        <v>20.86948647864939</v>
       </c>
       <c r="H19">
-        <v>7.060270534934493</v>
+        <v>3.020486899847331</v>
       </c>
       <c r="I19">
-        <v>10.1009599171371</v>
+        <v>2.97102362623389</v>
       </c>
       <c r="J19">
-        <v>5.233013088713749</v>
+        <v>8.114628604646677</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.87744674116398</v>
       </c>
       <c r="L19">
-        <v>10.89191476897622</v>
+        <v>5.782052731739185</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>9.446264020011727</v>
       </c>
       <c r="O19">
-        <v>11.04287010101958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.66298234886827</v>
+      </c>
+      <c r="Q19">
+        <v>13.22886367382486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.42463021246533</v>
+        <v>23.68645431472175</v>
       </c>
       <c r="C20">
-        <v>14.36840936505613</v>
+        <v>13.14367361603247</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.19085937714827</v>
+        <v>11.90554633422654</v>
       </c>
       <c r="F20">
-        <v>24.1734615063704</v>
+        <v>27.87963608892355</v>
       </c>
       <c r="G20">
-        <v>17.04173785342597</v>
+        <v>22.48796593432585</v>
       </c>
       <c r="H20">
-        <v>7.027555576066515</v>
+        <v>1.973263298624611</v>
       </c>
       <c r="I20">
-        <v>9.963044983882794</v>
+        <v>3.067401219889869</v>
       </c>
       <c r="J20">
-        <v>5.257305516826962</v>
+        <v>8.348541946718752</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.32786378103267</v>
       </c>
       <c r="L20">
-        <v>11.03325505401815</v>
+        <v>5.610246988570725</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.68944303669882</v>
       </c>
       <c r="O20">
-        <v>11.03048200432622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.48073484844446</v>
+      </c>
+      <c r="Q20">
+        <v>13.87127977002971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.20261999748521</v>
+        <v>25.14792326677204</v>
       </c>
       <c r="C21">
-        <v>14.91208229967225</v>
+        <v>13.52311545097217</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.28934362904938</v>
+        <v>12.24999631637027</v>
       </c>
       <c r="F21">
-        <v>24.87669183411711</v>
+        <v>28.94738900444036</v>
       </c>
       <c r="G21">
-        <v>17.57517536465763</v>
+        <v>23.42806031654487</v>
       </c>
       <c r="H21">
-        <v>6.927853165831515</v>
+        <v>2.218285467844316</v>
       </c>
       <c r="I21">
-        <v>9.515578984573327</v>
+        <v>3.23717750859777</v>
       </c>
       <c r="J21">
-        <v>5.338544309855961</v>
+        <v>8.406455097219654</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.32061189290458</v>
       </c>
       <c r="L21">
-        <v>11.49939046313627</v>
+        <v>5.708476918480946</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.20039315542579</v>
       </c>
       <c r="O21">
-        <v>11.01591734030086</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.45803532414202</v>
+      </c>
+      <c r="Q21">
+        <v>14.15162338555696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.3146509206104</v>
+        <v>26.04975190326577</v>
       </c>
       <c r="C22">
-        <v>15.25884830300786</v>
+        <v>13.76746899156842</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.35952905760812</v>
+        <v>12.41966590847952</v>
       </c>
       <c r="F22">
-        <v>25.35422515256617</v>
+        <v>29.56911505862236</v>
       </c>
       <c r="G22">
-        <v>17.96112050487491</v>
+        <v>24.00976289881455</v>
       </c>
       <c r="H22">
-        <v>6.870861920437702</v>
+        <v>2.3709113376245</v>
       </c>
       <c r="I22">
-        <v>9.236122374662322</v>
+        <v>3.340278097849371</v>
       </c>
       <c r="J22">
-        <v>5.391316726588615</v>
+        <v>8.442924144200497</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.3139565867008</v>
       </c>
       <c r="L22">
-        <v>11.79720548317221</v>
+        <v>5.778208801675326</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.46771459780314</v>
       </c>
       <c r="O22">
-        <v>11.02787232097893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.44924600406919</v>
+      </c>
+      <c r="Q22">
+        <v>14.32750531706235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.72568558318591</v>
+        <v>25.5852304880506</v>
       </c>
       <c r="C23">
-        <v>15.07457556668062</v>
+        <v>13.62192500392151</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.32153083998706</v>
+        <v>12.33240709420763</v>
       </c>
       <c r="F23">
-        <v>25.09773504010272</v>
+        <v>29.25676919575067</v>
       </c>
       <c r="G23">
-        <v>17.7517141059628</v>
+        <v>23.73325228142237</v>
       </c>
       <c r="H23">
-        <v>6.900494551274634</v>
+        <v>2.290500801210991</v>
       </c>
       <c r="I23">
-        <v>9.384004117862725</v>
+        <v>3.281720280919435</v>
       </c>
       <c r="J23">
-        <v>5.363182939350657</v>
+        <v>8.429147363383798</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.33188143784269</v>
       </c>
       <c r="L23">
-        <v>11.63889924604833</v>
+        <v>5.739490621809621</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.32069629604523</v>
       </c>
       <c r="O23">
-        <v>11.01944385390938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.44878574450177</v>
+      </c>
+      <c r="Q23">
+        <v>14.2480410525806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.39471995548555</v>
+        <v>23.71844685989639</v>
       </c>
       <c r="C24">
-        <v>14.35938365157437</v>
+        <v>13.08382505242806</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.18934649640134</v>
+        <v>11.99200200606118</v>
       </c>
       <c r="F24">
-        <v>24.16227450737637</v>
+        <v>28.03096115538498</v>
       </c>
       <c r="G24">
-        <v>17.03364620658634</v>
+        <v>22.62865227372978</v>
       </c>
       <c r="H24">
-        <v>7.029315056268458</v>
+        <v>1.977787320492844</v>
       </c>
       <c r="I24">
-        <v>9.970561322607496</v>
+        <v>3.061773774775428</v>
       </c>
       <c r="J24">
-        <v>5.255972824023237</v>
+        <v>8.373856786484051</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.3872853562826</v>
       </c>
       <c r="L24">
-        <v>11.02552536555226</v>
+        <v>5.592196507019154</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.75660271485268</v>
       </c>
       <c r="O24">
-        <v>11.03106386821601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.46074824179604</v>
+      </c>
+      <c r="Q24">
+        <v>13.93340536594508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.66309568272632</v>
+        <v>21.51705893180018</v>
       </c>
       <c r="C25">
-        <v>13.55353759478916</v>
+        <v>12.47833556873216</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.07106530370858</v>
+        <v>11.61518092582055</v>
       </c>
       <c r="F25">
-        <v>23.23203227942636</v>
+        <v>26.68802626250915</v>
       </c>
       <c r="G25">
-        <v>16.41714595995402</v>
+        <v>21.43570068857694</v>
       </c>
       <c r="H25">
-        <v>7.199843685674489</v>
+        <v>1.624948014400473</v>
       </c>
       <c r="I25">
-        <v>10.6522492516794</v>
+        <v>2.816836382642184</v>
       </c>
       <c r="J25">
-        <v>5.139199698469595</v>
+        <v>8.327869139108236</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.47091236854748</v>
       </c>
       <c r="L25">
-        <v>10.33673445896446</v>
+        <v>5.426270948979568</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>10.11721684949869</v>
       </c>
       <c r="O25">
-        <v>11.12727907637077</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.48491098520119</v>
+      </c>
+      <c r="Q25">
+        <v>13.61658571465766</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.77105681932273</v>
+        <v>19.57328166929477</v>
       </c>
       <c r="C2">
-        <v>11.97124701750158</v>
+        <v>11.94074714555799</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.33866545358898</v>
+        <v>11.2402239119203</v>
       </c>
       <c r="F2">
-        <v>25.73940477390696</v>
+        <v>25.40085938850623</v>
       </c>
       <c r="G2">
-        <v>20.65461467578448</v>
+        <v>19.41543798126487</v>
       </c>
       <c r="H2">
-        <v>1.772976387430123</v>
+        <v>1.748017651642866</v>
       </c>
       <c r="I2">
-        <v>2.620802524715776</v>
+        <v>2.66224452443832</v>
       </c>
       <c r="J2">
-        <v>8.319975286739499</v>
+        <v>8.785489375913938</v>
       </c>
       <c r="K2">
-        <v>13.58749279847212</v>
+        <v>13.26572929351855</v>
       </c>
       <c r="L2">
-        <v>5.294188041485952</v>
+        <v>11.60812796106597</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.028261470038645</v>
       </c>
       <c r="N2">
-        <v>9.608160149696227</v>
+        <v>5.298925514652603</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.50121253510214</v>
+        <v>9.73118646476893</v>
       </c>
       <c r="Q2">
-        <v>13.44096490860426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.52248443239104</v>
+      </c>
+      <c r="S2">
+        <v>13.20223795192683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.46407975259035</v>
+        <v>18.30761499822761</v>
       </c>
       <c r="C3">
-        <v>11.63913567759567</v>
+        <v>11.54112173874095</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.14270452450768</v>
+        <v>11.05712362221196</v>
       </c>
       <c r="F3">
-        <v>25.06443568980175</v>
+        <v>24.76890952929477</v>
       </c>
       <c r="G3">
-        <v>20.07931784715798</v>
+        <v>18.90234915644105</v>
       </c>
       <c r="H3">
-        <v>1.9720593434436</v>
+        <v>1.936906623113053</v>
       </c>
       <c r="I3">
-        <v>2.487330736179062</v>
+        <v>2.541977354122809</v>
       </c>
       <c r="J3">
-        <v>8.312587056854984</v>
+        <v>8.762116041101518</v>
       </c>
       <c r="K3">
-        <v>13.65625891690953</v>
+        <v>13.35341528741469</v>
       </c>
       <c r="L3">
-        <v>5.203409371920271</v>
+        <v>11.7575495971195</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.027428756611645</v>
       </c>
       <c r="N3">
-        <v>9.257346887546362</v>
+        <v>5.198686340527509</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.52406577774824</v>
+        <v>9.373489362761548</v>
       </c>
       <c r="Q3">
-        <v>13.31203930007772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.52214979981195</v>
+      </c>
+      <c r="S3">
+        <v>13.09985492889805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.61158982772762</v>
+        <v>17.47997498951299</v>
       </c>
       <c r="C4">
-        <v>11.43058686428827</v>
+        <v>11.29013188190226</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.02047218422337</v>
+        <v>10.94300314580163</v>
       </c>
       <c r="F4">
-        <v>24.64870018652265</v>
+        <v>24.3792209792317</v>
       </c>
       <c r="G4">
-        <v>19.72826737111552</v>
+        <v>18.59078347326303</v>
       </c>
       <c r="H4">
-        <v>2.098995285808357</v>
+        <v>2.057390461809204</v>
       </c>
       <c r="I4">
-        <v>2.543477654579206</v>
+        <v>2.483242269870037</v>
       </c>
       <c r="J4">
-        <v>8.310872093879048</v>
+        <v>8.748751995049595</v>
       </c>
       <c r="K4">
-        <v>13.7028397442327</v>
+        <v>13.41043578899594</v>
       </c>
       <c r="L4">
-        <v>5.146005629301129</v>
+        <v>11.85178852063261</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.047390328038619</v>
       </c>
       <c r="N4">
-        <v>9.03612591192973</v>
+        <v>5.135434220946437</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.54085623350938</v>
+        <v>9.148278074059201</v>
       </c>
       <c r="Q4">
-        <v>13.23795399087664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.52500719597985</v>
+      </c>
+      <c r="S4">
+        <v>13.04100930126678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.2543142149199</v>
+        <v>17.12529655674687</v>
       </c>
       <c r="C5">
-        <v>11.3489047916653</v>
+        <v>11.19133930079137</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.96930656587282</v>
+        <v>10.89519474856348</v>
       </c>
       <c r="F5">
-        <v>24.47348240269774</v>
+        <v>24.21444382833443</v>
       </c>
       <c r="G5">
-        <v>19.57566150868731</v>
+        <v>18.45420991923332</v>
       </c>
       <c r="H5">
-        <v>2.15217049881293</v>
+        <v>2.107882218775705</v>
       </c>
       <c r="I5">
-        <v>2.583669616528391</v>
+        <v>2.520386120988545</v>
       </c>
       <c r="J5">
-        <v>8.309293863188753</v>
+        <v>8.741983929622563</v>
       </c>
       <c r="K5">
-        <v>13.71908269256761</v>
+        <v>13.43069941888304</v>
       </c>
       <c r="L5">
-        <v>5.122603774043304</v>
+        <v>11.88725243854958</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.058611154537722</v>
       </c>
       <c r="N5">
-        <v>8.946194474360793</v>
+        <v>5.109667393408833</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.54937400478996</v>
+        <v>9.056807759591777</v>
       </c>
       <c r="Q5">
-        <v>13.20493761144019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.52798911134888</v>
+      </c>
+      <c r="S5">
+        <v>13.01391705452922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.18857455006857</v>
+        <v>17.05993546792977</v>
       </c>
       <c r="C6">
-        <v>11.34068554223307</v>
+        <v>11.18075016197301</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.95967452470554</v>
+        <v>10.88612378191139</v>
       </c>
       <c r="F6">
-        <v>24.43742072114229</v>
+        <v>24.18004452638715</v>
       </c>
       <c r="G6">
-        <v>19.53779287829249</v>
+        <v>18.41861826426098</v>
       </c>
       <c r="H6">
-        <v>2.161381084931005</v>
+        <v>2.116638758674988</v>
       </c>
       <c r="I6">
-        <v>2.594438878038531</v>
+        <v>2.531363417561673</v>
       </c>
       <c r="J6">
-        <v>8.307148919945929</v>
+        <v>8.738957650842865</v>
       </c>
       <c r="K6">
-        <v>13.71719697803676</v>
+        <v>13.42953144361334</v>
       </c>
       <c r="L6">
-        <v>5.119188956574797</v>
+        <v>11.88882305604864</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.058311298213793</v>
       </c>
       <c r="N6">
-        <v>8.933113575575129</v>
+        <v>5.105890407812294</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.55205367557976</v>
+        <v>9.043497299412142</v>
       </c>
       <c r="Q6">
-        <v>13.19452282226516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.52983306870671</v>
+      </c>
+      <c r="S6">
+        <v>13.0044540655091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.5917241964644</v>
+        <v>17.45441385165926</v>
       </c>
       <c r="C7">
-        <v>11.44418463447422</v>
+        <v>11.29803151527927</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.01678192312633</v>
+        <v>10.9421683277405</v>
       </c>
       <c r="F7">
-        <v>24.62748783757279</v>
+        <v>24.34993474632085</v>
       </c>
       <c r="G7">
-        <v>19.69216521160329</v>
+        <v>18.64550395003828</v>
       </c>
       <c r="H7">
-        <v>2.100533646105156</v>
+        <v>2.059297609323413</v>
       </c>
       <c r="I7">
-        <v>2.554696937663688</v>
+        <v>2.496770213652526</v>
       </c>
       <c r="J7">
-        <v>8.305601302044787</v>
+        <v>8.706668129926172</v>
       </c>
       <c r="K7">
-        <v>13.69036576636308</v>
+        <v>13.39376006023025</v>
       </c>
       <c r="L7">
-        <v>5.147053640731328</v>
+        <v>11.83648548403015</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.037858328757586</v>
       </c>
       <c r="N7">
-        <v>9.040127128143347</v>
+        <v>5.137198389550556</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.5443737458266</v>
+        <v>9.153011077474311</v>
       </c>
       <c r="Q7">
-        <v>13.22387189438475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.53006975240627</v>
+      </c>
+      <c r="S7">
+        <v>13.01756025339258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.3128083416245</v>
+        <v>19.11152829351192</v>
       </c>
       <c r="C8">
-        <v>11.87680577813034</v>
+        <v>11.80312370787803</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.26767402275267</v>
+        <v>11.18289159304988</v>
       </c>
       <c r="F8">
-        <v>25.48297287158483</v>
+        <v>25.13327139814546</v>
       </c>
       <c r="G8">
-        <v>20.41238490266327</v>
+        <v>19.48867646141306</v>
       </c>
       <c r="H8">
-        <v>1.841677625981469</v>
+        <v>1.814517429334214</v>
       </c>
       <c r="I8">
-        <v>2.57853278925966</v>
+        <v>2.624249835698338</v>
       </c>
       <c r="J8">
-        <v>8.309934677459417</v>
+        <v>8.650498325164754</v>
       </c>
       <c r="K8">
-        <v>13.59350453481661</v>
+        <v>13.26420128144513</v>
       </c>
       <c r="L8">
-        <v>5.265066913746526</v>
+        <v>11.63259174009929</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.002608472916789</v>
       </c>
       <c r="N8">
-        <v>9.495066561339902</v>
+        <v>5.268912070907786</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.51327699340021</v>
+        <v>9.617980892044338</v>
       </c>
       <c r="Q8">
-        <v>13.37766695101749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.53174086427236</v>
+      </c>
+      <c r="S8">
+        <v>13.11741628697856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.3057989943241</v>
+        <v>22.00727299667649</v>
       </c>
       <c r="C9">
-        <v>12.6606145786346</v>
+        <v>12.74245439735937</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.74823713619087</v>
+        <v>11.63495597815018</v>
       </c>
       <c r="F9">
-        <v>27.17330723247034</v>
+        <v>26.71041900623765</v>
       </c>
       <c r="G9">
-        <v>21.89252574863329</v>
+        <v>20.88206728570463</v>
       </c>
       <c r="H9">
-        <v>1.747156739894602</v>
+        <v>1.749613471329582</v>
       </c>
       <c r="I9">
-        <v>2.895557302958192</v>
+        <v>2.909027073016275</v>
       </c>
       <c r="J9">
-        <v>8.350835504057565</v>
+        <v>8.688655123186258</v>
       </c>
       <c r="K9">
-        <v>13.46242121140889</v>
+        <v>13.07481653415102</v>
       </c>
       <c r="L9">
-        <v>5.480577126481317</v>
+        <v>11.28580739375951</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.121557505927932</v>
       </c>
       <c r="N9">
-        <v>10.32823418764025</v>
+        <v>5.508223288100799</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.46833262203968</v>
+        <v>10.46958640188569</v>
       </c>
       <c r="Q9">
-        <v>13.74372197700682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.54784294915504</v>
+      </c>
+      <c r="S9">
+        <v>13.40418991904702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.2079951048535</v>
+        <v>23.82335242576585</v>
       </c>
       <c r="C10">
-        <v>13.25301440082236</v>
+        <v>13.40542735682283</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.97858824039522</v>
+        <v>11.86209998208544</v>
       </c>
       <c r="F10">
-        <v>28.20985450403984</v>
+        <v>27.62937061013383</v>
       </c>
       <c r="G10">
-        <v>22.83353451807765</v>
+        <v>22.24134991676856</v>
       </c>
       <c r="H10">
-        <v>2.057194000592106</v>
+        <v>2.041383611787529</v>
       </c>
       <c r="I10">
-        <v>3.114680052507226</v>
+        <v>3.105104819712144</v>
       </c>
       <c r="J10">
-        <v>8.371980979004276</v>
+        <v>8.501716418631952</v>
       </c>
       <c r="K10">
-        <v>13.33810954741997</v>
+        <v>12.88231654955824</v>
       </c>
       <c r="L10">
-        <v>5.648595832557189</v>
+        <v>10.99431272617914</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.243408574433593</v>
       </c>
       <c r="N10">
-        <v>10.80294949865597</v>
+        <v>5.69804654662372</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.46872096418264</v>
+        <v>10.9600643984609</v>
       </c>
       <c r="Q10">
-        <v>13.9765643335217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.60391763939215</v>
+      </c>
+      <c r="S10">
+        <v>13.52755602375627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.62545846583403</v>
+        <v>24.19273981656269</v>
       </c>
       <c r="C11">
-        <v>13.85833479515618</v>
+        <v>13.95927451463079</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.18039191458423</v>
+        <v>11.09114952634824</v>
       </c>
       <c r="F11">
-        <v>27.14785828852355</v>
+        <v>26.49808025709309</v>
       </c>
       <c r="G11">
-        <v>22.10937503667481</v>
+        <v>22.57346645724732</v>
       </c>
       <c r="H11">
-        <v>2.928575479954269</v>
+        <v>2.911912073670621</v>
       </c>
       <c r="I11">
-        <v>3.179601204845634</v>
+        <v>3.162237804649145</v>
       </c>
       <c r="J11">
-        <v>8.18988211633426</v>
+        <v>7.959376360791351</v>
       </c>
       <c r="K11">
-        <v>12.87055141385011</v>
+        <v>12.40034325505625</v>
       </c>
       <c r="L11">
-        <v>5.893130690195949</v>
+        <v>10.60915904851429</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.949613987714548</v>
       </c>
       <c r="N11">
-        <v>10.12562318901392</v>
+        <v>5.966494988870338</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.63295723334528</v>
+        <v>10.28069277129094</v>
       </c>
       <c r="Q11">
-        <v>13.59279786554439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.80917349080705</v>
+      </c>
+      <c r="S11">
+        <v>13.04934180961115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.60687905679158</v>
+        <v>24.16658930696487</v>
       </c>
       <c r="C12">
-        <v>14.23749033379473</v>
+        <v>14.2955467845552</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.53443243640009</v>
+        <v>10.45393312494924</v>
       </c>
       <c r="F12">
-        <v>26.040072492</v>
+        <v>25.38355989034392</v>
       </c>
       <c r="G12">
-        <v>21.32721367652518</v>
+        <v>22.31308568702578</v>
       </c>
       <c r="H12">
-        <v>4.183870462836973</v>
+        <v>4.171416873830214</v>
       </c>
       <c r="I12">
-        <v>3.186962626432048</v>
+        <v>3.167049439764862</v>
       </c>
       <c r="J12">
-        <v>8.035403153425548</v>
+        <v>7.687707358842484</v>
       </c>
       <c r="K12">
-        <v>12.52282794090649</v>
+        <v>12.07392528627757</v>
       </c>
       <c r="L12">
-        <v>6.083624828809801</v>
+        <v>10.38150305191514</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.696317549603614</v>
       </c>
       <c r="N12">
-        <v>9.450444304813059</v>
+        <v>6.169520069889667</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.77439713599694</v>
+        <v>9.59722376467745</v>
       </c>
       <c r="Q12">
-        <v>13.22978464421288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.96652559281745</v>
+      </c>
+      <c r="S12">
+        <v>12.66401529418018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.2345101076306</v>
+        <v>23.82791738744954</v>
       </c>
       <c r="C13">
-        <v>14.49007599669763</v>
+        <v>14.52905534859485</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.973252865839315</v>
+        <v>9.887047119360904</v>
       </c>
       <c r="F13">
-        <v>24.7856534468133</v>
+        <v>24.18713077964755</v>
       </c>
       <c r="G13">
-        <v>20.38737390778885</v>
+        <v>21.30878401131923</v>
       </c>
       <c r="H13">
-        <v>5.505390150466334</v>
+        <v>5.497276806633752</v>
       </c>
       <c r="I13">
-        <v>3.154527929877443</v>
+        <v>3.13821026915317</v>
       </c>
       <c r="J13">
-        <v>7.884250850213678</v>
+        <v>7.628232803437548</v>
       </c>
       <c r="K13">
-        <v>12.22862520993891</v>
+        <v>11.83683891934444</v>
       </c>
       <c r="L13">
-        <v>6.245004973358256</v>
+        <v>10.24030278224403</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.456449584711174</v>
       </c>
       <c r="N13">
-        <v>8.733283535290902</v>
+        <v>6.331658600016075</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.90863919897711</v>
+        <v>8.865268107781244</v>
       </c>
       <c r="Q13">
-        <v>12.83670187805683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13.09207251037157</v>
+      </c>
+      <c r="S13">
+        <v>12.32457303024256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.80479274045591</v>
+        <v>23.44050743565942</v>
       </c>
       <c r="C14">
-        <v>14.61634790216435</v>
+        <v>14.65316828052396</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.640128320328706</v>
+        <v>9.547354467317186</v>
       </c>
       <c r="F14">
-        <v>23.83045711791002</v>
+        <v>23.30060790743655</v>
       </c>
       <c r="G14">
-        <v>19.6417718911783</v>
+        <v>20.26042053840541</v>
       </c>
       <c r="H14">
-        <v>6.453223059089808</v>
+        <v>6.447769646651194</v>
       </c>
       <c r="I14">
-        <v>3.114938157432473</v>
+        <v>3.104224069043353</v>
       </c>
       <c r="J14">
-        <v>7.778980965229132</v>
+        <v>7.668552364188397</v>
       </c>
       <c r="K14">
-        <v>12.04739846641843</v>
+        <v>11.70839990680413</v>
       </c>
       <c r="L14">
-        <v>6.347354242660005</v>
+        <v>10.1741430672488</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.296322660840896</v>
       </c>
       <c r="N14">
-        <v>8.213178726355434</v>
+        <v>6.428476906823147</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>13.00041672199964</v>
+        <v>8.332116773145248</v>
       </c>
       <c r="Q14">
-        <v>12.54402782344688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.16626330518989</v>
+      </c>
+      <c r="S14">
+        <v>12.10161956118179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.61813036858585</v>
+        <v>23.27230223522481</v>
       </c>
       <c r="C15">
-        <v>14.62488183485992</v>
+        <v>14.66627003891496</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.567318785756948</v>
+        <v>9.472516592134026</v>
       </c>
       <c r="F15">
-        <v>23.56213200511545</v>
+        <v>23.06087551681868</v>
       </c>
       <c r="G15">
-        <v>19.41609598860412</v>
+        <v>19.85115265261003</v>
       </c>
       <c r="H15">
-        <v>6.671434990586881</v>
+        <v>6.674556939348832</v>
       </c>
       <c r="I15">
-        <v>3.097860705958345</v>
+        <v>3.090321985625411</v>
       </c>
       <c r="J15">
-        <v>7.752942707686099</v>
+        <v>7.713720087929425</v>
       </c>
       <c r="K15">
-        <v>12.01125938199498</v>
+        <v>11.69057692085737</v>
       </c>
       <c r="L15">
-        <v>6.364324164253161</v>
+        <v>10.17001353304465</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.258370631464284</v>
       </c>
       <c r="N15">
-        <v>8.078267734136945</v>
+        <v>6.441668940414454</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>13.02154022945888</v>
+        <v>8.193074521879574</v>
       </c>
       <c r="Q15">
-        <v>12.46301821213971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.17828705506731</v>
+      </c>
+      <c r="S15">
+        <v>12.05117465235097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.88134058123688</v>
+        <v>22.60519515446247</v>
       </c>
       <c r="C16">
-        <v>14.34200351732846</v>
+        <v>14.41931974553074</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.575575804904302</v>
+        <v>9.475551524346457</v>
       </c>
       <c r="F16">
-        <v>23.32124222624302</v>
+        <v>22.91960664644803</v>
       </c>
       <c r="G16">
-        <v>19.13847944268277</v>
+        <v>18.6775936069562</v>
       </c>
       <c r="H16">
-        <v>6.455731332861935</v>
+        <v>6.457140446285712</v>
       </c>
       <c r="I16">
-        <v>3.012947969139304</v>
+        <v>3.018210043530055</v>
       </c>
       <c r="J16">
-        <v>7.770052525739189</v>
+        <v>8.04176354984752</v>
       </c>
       <c r="K16">
-        <v>12.12084793459102</v>
+        <v>11.84484572143449</v>
       </c>
       <c r="L16">
-        <v>6.262760997876009</v>
+        <v>10.30470427729456</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.294691895534433</v>
       </c>
       <c r="N16">
-        <v>7.996789111127643</v>
+        <v>6.320160725071934</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.98547713450441</v>
+        <v>8.103801565974042</v>
       </c>
       <c r="Q16">
-        <v>12.42611799833363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.10094633513489</v>
+      </c>
+      <c r="S16">
+        <v>12.12659803509099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.54340352223556</v>
+        <v>22.29118342171449</v>
       </c>
       <c r="C17">
-        <v>14.05314300953664</v>
+        <v>14.14779156434184</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.747684858535033</v>
+        <v>9.644211946998478</v>
       </c>
       <c r="F17">
-        <v>23.65540329264688</v>
+        <v>23.28361927665679</v>
       </c>
       <c r="G17">
-        <v>19.33481833711011</v>
+        <v>18.47646142518406</v>
       </c>
       <c r="H17">
-        <v>5.706319255190324</v>
+        <v>5.706748369821603</v>
       </c>
       <c r="I17">
-        <v>2.968962783234834</v>
+        <v>2.980665934315274</v>
       </c>
       <c r="J17">
-        <v>7.83947853512981</v>
+        <v>8.243620601565713</v>
       </c>
       <c r="K17">
-        <v>12.29879858925274</v>
+        <v>12.02690452211953</v>
       </c>
       <c r="L17">
-        <v>6.127407886383522</v>
+        <v>10.44869734929287</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.398849960924614</v>
       </c>
       <c r="N17">
-        <v>8.215211873043483</v>
+        <v>6.175070468250635</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.91056746005782</v>
+        <v>8.32362662177577</v>
       </c>
       <c r="Q17">
-        <v>12.55573264380922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>13.00798844802827</v>
+      </c>
+      <c r="S17">
+        <v>12.29293305129519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.5326989420111</v>
+        <v>22.27636831658732</v>
       </c>
       <c r="C18">
-        <v>13.71953929485642</v>
+        <v>13.82957528389151</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.13969160106037</v>
+        <v>10.03012002761371</v>
       </c>
       <c r="F18">
-        <v>24.53307385012666</v>
+        <v>24.15025883789204</v>
       </c>
       <c r="G18">
-        <v>19.97953202535587</v>
+        <v>18.92649162739207</v>
       </c>
       <c r="H18">
-        <v>4.427978358883656</v>
+        <v>4.428043336338405</v>
       </c>
       <c r="I18">
-        <v>2.953023641613472</v>
+        <v>2.96567517908808</v>
       </c>
       <c r="J18">
-        <v>7.964206929225648</v>
+        <v>8.413600223171109</v>
       </c>
       <c r="K18">
-        <v>12.56768362660768</v>
+        <v>12.27392485324756</v>
       </c>
       <c r="L18">
-        <v>5.954569670746031</v>
+        <v>10.63328843374473</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.582731524737181</v>
       </c>
       <c r="N18">
-        <v>8.724185033385671</v>
+        <v>5.997292715943485</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.79291596689302</v>
+        <v>8.840376728452421</v>
       </c>
       <c r="Q18">
-        <v>12.84985646957038</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.8846312215122</v>
+      </c>
+      <c r="S18">
+        <v>12.58328962199849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.76375049844159</v>
+        <v>22.48505077528895</v>
       </c>
       <c r="C19">
-        <v>13.41241634368467</v>
+        <v>13.54132375190811</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.75152792703207</v>
+        <v>10.63395932089192</v>
       </c>
       <c r="F19">
-        <v>25.74656654596509</v>
+        <v>25.32700408264015</v>
       </c>
       <c r="G19">
-        <v>20.86948647864939</v>
+        <v>19.7215017436326</v>
       </c>
       <c r="H19">
-        <v>3.020486899847331</v>
+        <v>3.019687749919849</v>
       </c>
       <c r="I19">
-        <v>2.97102362623389</v>
+        <v>2.982688565109703</v>
       </c>
       <c r="J19">
-        <v>8.114628604646677</v>
+        <v>8.561747120740794</v>
       </c>
       <c r="K19">
-        <v>12.87744674116398</v>
+        <v>12.54566068405708</v>
       </c>
       <c r="L19">
-        <v>5.782052731739185</v>
+        <v>10.83002416922635</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.806824691785394</v>
       </c>
       <c r="N19">
-        <v>9.446264020011727</v>
+        <v>5.822138080839554</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.66298234886827</v>
+        <v>9.574261549429158</v>
       </c>
       <c r="Q19">
-        <v>13.22886367382486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.75689556329788</v>
+      </c>
+      <c r="S19">
+        <v>12.93448364593062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.68645431472175</v>
+        <v>23.33924985683631</v>
       </c>
       <c r="C20">
-        <v>13.14367361603247</v>
+        <v>13.30306996039891</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.90554633422654</v>
+        <v>11.78024769042275</v>
       </c>
       <c r="F20">
-        <v>27.87963608892355</v>
+        <v>27.35524985107134</v>
       </c>
       <c r="G20">
-        <v>22.48796593432585</v>
+        <v>21.49480056812984</v>
       </c>
       <c r="H20">
-        <v>1.973263298624611</v>
+        <v>1.963393489245139</v>
       </c>
       <c r="I20">
-        <v>3.067401219889869</v>
+        <v>3.068487171380139</v>
       </c>
       <c r="J20">
-        <v>8.348541946718752</v>
+        <v>8.657535266169424</v>
       </c>
       <c r="K20">
-        <v>13.32786378103267</v>
+        <v>12.90819371840352</v>
       </c>
       <c r="L20">
-        <v>5.610246988570725</v>
+        <v>11.05325812825257</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.18546889468756</v>
       </c>
       <c r="N20">
-        <v>10.68944303669882</v>
+        <v>5.651889526240153</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.48073484844446</v>
+        <v>10.84040592543739</v>
       </c>
       <c r="Q20">
-        <v>13.87127977002971</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.5961576658975</v>
+      </c>
+      <c r="S20">
+        <v>13.48393604181798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.14792326677204</v>
+        <v>24.65279371661491</v>
       </c>
       <c r="C21">
-        <v>13.52311545097217</v>
+        <v>13.62594036679816</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.24999631637027</v>
+        <v>12.17358753643956</v>
       </c>
       <c r="F21">
-        <v>28.94738900444036</v>
+        <v>28.19232277975554</v>
       </c>
       <c r="G21">
-        <v>23.42806031654487</v>
+        <v>24.24879600707204</v>
       </c>
       <c r="H21">
-        <v>2.218285467844316</v>
+        <v>2.188350530574899</v>
       </c>
       <c r="I21">
-        <v>3.23717750859777</v>
+        <v>3.213479676387259</v>
       </c>
       <c r="J21">
-        <v>8.406455097219654</v>
+        <v>7.952487396401038</v>
       </c>
       <c r="K21">
-        <v>13.32061189290458</v>
+        <v>12.75269062247128</v>
       </c>
       <c r="L21">
-        <v>5.708476918480946</v>
+        <v>10.83012040187086</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.290833319667183</v>
       </c>
       <c r="N21">
-        <v>11.20039315542579</v>
+        <v>5.778562663925864</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.45803532414202</v>
+        <v>11.37727305740639</v>
       </c>
       <c r="Q21">
-        <v>14.15162338555696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.64954178631409</v>
+      </c>
+      <c r="S21">
+        <v>13.50244278039207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.04975190326577</v>
+        <v>25.45860953022463</v>
       </c>
       <c r="C22">
-        <v>13.76746899156842</v>
+        <v>13.82506386408609</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.41966590847952</v>
+        <v>12.38130183004643</v>
       </c>
       <c r="F22">
-        <v>29.56911505862236</v>
+        <v>28.65902839905102</v>
       </c>
       <c r="G22">
-        <v>24.00976289881455</v>
+        <v>26.1076311524023</v>
       </c>
       <c r="H22">
-        <v>2.3709113376245</v>
+        <v>2.328319243799782</v>
       </c>
       <c r="I22">
-        <v>3.340278097849371</v>
+        <v>3.299643823682526</v>
       </c>
       <c r="J22">
-        <v>8.442924144200497</v>
+        <v>7.516426988302634</v>
       </c>
       <c r="K22">
-        <v>13.3139565867008</v>
+        <v>12.64169393569752</v>
       </c>
       <c r="L22">
-        <v>5.778208801675326</v>
+        <v>10.68106783598567</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.361684130742612</v>
       </c>
       <c r="N22">
-        <v>11.46771459780314</v>
+        <v>5.868027101186184</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.44924600406919</v>
+        <v>11.66130056706399</v>
       </c>
       <c r="Q22">
-        <v>14.32750531706235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.69399185195753</v>
+      </c>
+      <c r="S22">
+        <v>13.49527538882002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.5852304880506</v>
+        <v>25.05589160249405</v>
       </c>
       <c r="C23">
-        <v>13.62192500392151</v>
+        <v>13.7175240679172</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.33240709420763</v>
+        <v>12.26611650336757</v>
       </c>
       <c r="F23">
-        <v>29.25676919575067</v>
+        <v>28.44768743111974</v>
       </c>
       <c r="G23">
-        <v>23.73325228142237</v>
+        <v>24.94231659963949</v>
       </c>
       <c r="H23">
-        <v>2.290500801210991</v>
+        <v>2.255294079297189</v>
       </c>
       <c r="I23">
-        <v>3.281720280919435</v>
+        <v>3.249500075885674</v>
       </c>
       <c r="J23">
-        <v>8.429147363383798</v>
+        <v>7.816985124464545</v>
       </c>
       <c r="K23">
-        <v>13.33188143784269</v>
+        <v>12.72638720982465</v>
       </c>
       <c r="L23">
-        <v>5.739490621809621</v>
+        <v>10.77622187017172</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.34648054670199</v>
       </c>
       <c r="N23">
-        <v>11.32069629604523</v>
+        <v>5.816778601440856</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.44878574450177</v>
+        <v>11.50370499399345</v>
       </c>
       <c r="Q23">
-        <v>14.2480410525806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.65990386166959</v>
+      </c>
+      <c r="S23">
+        <v>13.53707662711393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.71844685989639</v>
+        <v>23.37012573667379</v>
       </c>
       <c r="C24">
-        <v>13.08382505242806</v>
+        <v>13.24272206670591</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.99200200606118</v>
+        <v>11.86569369480197</v>
       </c>
       <c r="F24">
-        <v>28.03096115538498</v>
+        <v>27.50441995363499</v>
       </c>
       <c r="G24">
-        <v>22.62865227372978</v>
+        <v>21.61559237325572</v>
       </c>
       <c r="H24">
-        <v>1.977787320492844</v>
+        <v>1.967826311793448</v>
       </c>
       <c r="I24">
-        <v>3.061773774775428</v>
+        <v>3.060672121250574</v>
       </c>
       <c r="J24">
-        <v>8.373856786484051</v>
+        <v>8.686714862760219</v>
       </c>
       <c r="K24">
-        <v>13.3872853562826</v>
+        <v>12.96313172294886</v>
       </c>
       <c r="L24">
-        <v>5.592196507019154</v>
+        <v>11.09331032108027</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.229617171071151</v>
       </c>
       <c r="N24">
-        <v>10.75660271485268</v>
+        <v>5.6327751415471</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.46074824179604</v>
+        <v>10.90846171267747</v>
       </c>
       <c r="Q24">
-        <v>13.93340536594508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.57500972008664</v>
+      </c>
+      <c r="S24">
+        <v>13.54456158588411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.51705893180018</v>
+        <v>21.25021970600665</v>
       </c>
       <c r="C25">
-        <v>12.47833556873216</v>
+        <v>12.53043398960445</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.61518092582055</v>
+        <v>11.50548932601795</v>
       </c>
       <c r="F25">
-        <v>26.68802626250915</v>
+        <v>26.26615880622282</v>
       </c>
       <c r="G25">
-        <v>21.43570068857694</v>
+        <v>20.32506168640725</v>
       </c>
       <c r="H25">
-        <v>1.624948014400473</v>
+        <v>1.634297857040182</v>
       </c>
       <c r="I25">
-        <v>2.816836382642184</v>
+        <v>2.841111589788387</v>
       </c>
       <c r="J25">
-        <v>8.327869139108236</v>
+        <v>8.719170783730988</v>
       </c>
       <c r="K25">
-        <v>13.47091236854748</v>
+        <v>13.10734585793997</v>
       </c>
       <c r="L25">
-        <v>5.426270948979568</v>
+        <v>11.36577339670128</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.059339619792857</v>
       </c>
       <c r="N25">
-        <v>10.11721684949869</v>
+        <v>5.446778141235551</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.48491098520119</v>
+        <v>10.25269961573887</v>
       </c>
       <c r="Q25">
-        <v>13.61658571465766</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.5459603582358</v>
+      </c>
+      <c r="S25">
+        <v>13.31245692845602</v>
       </c>
     </row>
   </sheetData>
